--- a/puntos_ce.xlsx
+++ b/puntos_ce.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrique\Desktop\Proyectos\SGG115\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2477378F-4F47-4DF5-9E68-A16961A70772}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="puntos_ce" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="386">
   <si>
     <t>id</t>
   </si>
@@ -1165,13 +1159,34 @@
   </si>
   <si>
     <t>kinderpowerkids@outlook.com</t>
+  </si>
+  <si>
+    <t>CENTRO ESCOLAR CANTON SAN CRISTOBAL</t>
+  </si>
+  <si>
+    <t>ESCUELA DE EDUCACION PARVULARIA ESTADO DE ISRAEL</t>
+  </si>
+  <si>
+    <t>COMUNIDAD ALTOS DE JARDINES, COSTADO ORIENTE DE CIMA IV</t>
+  </si>
+  <si>
+    <t>SAN CRISTOBAL</t>
+  </si>
+  <si>
+    <t>cesancristobal_@hotmail.com</t>
+  </si>
+  <si>
+    <t>COLONIA Y AV. 3  DE MAYO #123</t>
+  </si>
+  <si>
+    <t>estado.israel@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1197,7 +1212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1233,11 +1248,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="hair">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1246,6 +1281,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,7 +1343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1358,7 +1395,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1552,34 +1589,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="D86" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15"/>
-    <col min="2" max="2" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
     <col min="3" max="3" width="15"/>
-    <col min="4" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="114.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="114.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="46.7109375" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" customWidth="1"/>
     <col min="12" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1661,7 +1698,7 @@
         <v>13.702189000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1702,7 +1739,7 @@
         <v>13.724618</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1743,7 +1780,7 @@
         <v>13.715598</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1784,7 +1821,7 @@
         <v>13.708848</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1825,7 +1862,7 @@
         <v>13.714492</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1866,7 +1903,7 @@
         <v>13.715273</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1907,7 +1944,7 @@
         <v>13.715441</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1948,7 +1985,7 @@
         <v>13.715210000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1989,7 +2026,7 @@
         <v>13.696554000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2030,7 +2067,7 @@
         <v>13.701499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2071,7 +2108,7 @@
         <v>13.693742</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2112,7 +2149,7 @@
         <v>13.686071</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>15</v>
       </c>
@@ -2153,7 +2190,7 @@
         <v>13.682698</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>16</v>
       </c>
@@ -2194,7 +2231,7 @@
         <v>13.717371</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>18</v>
       </c>
@@ -2235,7 +2272,7 @@
         <v>13.699014</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>19</v>
       </c>
@@ -2276,7 +2313,7 @@
         <v>13.698287000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2317,7 +2354,7 @@
         <v>13.686491999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2358,7 +2395,7 @@
         <v>13.709517</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2399,7 +2436,7 @@
         <v>13.697338</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2440,7 +2477,7 @@
         <v>13.700732</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2481,7 +2518,7 @@
         <v>13.712365999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2522,7 +2559,7 @@
         <v>13.688143</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2563,7 +2600,7 @@
         <v>13.707614</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2604,7 +2641,7 @@
         <v>13.713229</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2645,7 +2682,7 @@
         <v>13.709472</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2686,7 +2723,7 @@
         <v>13.714157999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2727,7 +2764,7 @@
         <v>13.719409000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2768,7 +2805,7 @@
         <v>13.690405999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2809,7 +2846,7 @@
         <v>13.668431</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2850,7 +2887,7 @@
         <v>13.712865000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2891,7 +2928,7 @@
         <v>13.717107</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2932,7 +2969,7 @@
         <v>13.673864</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2973,7 +3010,7 @@
         <v>13.685134</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3014,7 +3051,7 @@
         <v>13.709977</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3055,7 +3092,7 @@
         <v>13.677459000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3096,7 +3133,7 @@
         <v>13.714219</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3137,7 +3174,7 @@
         <v>13.689405000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3178,7 +3215,7 @@
         <v>13.684454000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3219,7 +3256,7 @@
         <v>13.695554</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3260,7 +3297,7 @@
         <v>13.66804</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3301,7 +3338,7 @@
         <v>13.696913</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3342,7 +3379,7 @@
         <v>13.689398000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3383,7 +3420,7 @@
         <v>13.709327</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3424,7 +3461,7 @@
         <v>13.692550000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3465,7 +3502,7 @@
         <v>13.68173</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3506,7 +3543,7 @@
         <v>13.685506999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3547,7 +3584,7 @@
         <v>13.696709</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3588,7 +3625,7 @@
         <v>13.67581</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3629,7 +3666,7 @@
         <v>13.683517</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3670,7 +3707,7 @@
         <v>13.695944000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3711,7 +3748,7 @@
         <v>13.693631</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3752,7 +3789,7 @@
         <v>13.695883</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3793,7 +3830,7 @@
         <v>13.697008</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3834,7 +3871,7 @@
         <v>13.711978</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3875,7 +3912,7 @@
         <v>13.698100999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3916,7 +3953,7 @@
         <v>13.70298</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3957,7 +3994,7 @@
         <v>13.703569</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>59</v>
       </c>
@@ -3998,7 +4035,7 @@
         <v>13.714371</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4039,7 +4076,7 @@
         <v>13.706894999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4080,7 +4117,7 @@
         <v>13.681168</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4121,7 +4158,7 @@
         <v>13.683494</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4162,7 +4199,7 @@
         <v>13.69819</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4203,7 +4240,7 @@
         <v>13.675254000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4244,7 +4281,7 @@
         <v>13.690181000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4285,7 +4322,7 @@
         <v>13.714304</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4326,7 +4363,7 @@
         <v>13.722702</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4367,7 +4404,7 @@
         <v>13.715164</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4408,7 +4445,7 @@
         <v>13.70857</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4449,7 +4486,7 @@
         <v>13.706678</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4490,7 +4527,7 @@
         <v>13.7102</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4531,7 +4568,7 @@
         <v>13.722339</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4572,7 +4609,7 @@
         <v>13.724226</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>75</v>
       </c>
@@ -4613,7 +4650,7 @@
         <v>13.718622999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>76</v>
       </c>
@@ -4654,7 +4691,7 @@
         <v>13.71203</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>77</v>
       </c>
@@ -4695,7 +4732,7 @@
         <v>13.717286</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>78</v>
       </c>
@@ -4736,7 +4773,7 @@
         <v>13.709228</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>79</v>
       </c>
@@ -4777,7 +4814,7 @@
         <v>13.688234</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>81</v>
       </c>
@@ -4818,7 +4855,7 @@
         <v>13.700654999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>82</v>
       </c>
@@ -4859,7 +4896,7 @@
         <v>13.710501000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>83</v>
       </c>
@@ -4900,7 +4937,7 @@
         <v>13.716232</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>84</v>
       </c>
@@ -4941,7 +4978,7 @@
         <v>13.706199</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>85</v>
       </c>
@@ -4982,7 +5019,7 @@
         <v>13.703569999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>86</v>
       </c>
@@ -5023,7 +5060,7 @@
         <v>13.709807</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>87</v>
       </c>
@@ -5064,7 +5101,7 @@
         <v>13.702524</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>88</v>
       </c>
@@ -5105,7 +5142,7 @@
         <v>13.686564000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>89</v>
       </c>
@@ -5146,7 +5183,7 @@
         <v>13.716786000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>90</v>
       </c>
@@ -5187,7 +5224,7 @@
         <v>13.700315</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>91</v>
       </c>
@@ -5228,7 +5265,7 @@
         <v>13.695952999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>92</v>
       </c>
@@ -5269,7 +5306,7 @@
         <v>13.709453999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>93</v>
       </c>
@@ -5310,7 +5347,7 @@
         <v>13.716532000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>94</v>
       </c>
@@ -5351,7 +5388,7 @@
         <v>13.706015000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>95</v>
       </c>
@@ -5392,7 +5429,7 @@
         <v>13.684417</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>96</v>
       </c>
@@ -5433,7 +5470,7 @@
         <v>13.701167999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>97</v>
       </c>
@@ -5474,7 +5511,7 @@
         <v>13.675409</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>98</v>
       </c>
@@ -5515,7 +5552,7 @@
         <v>13.685333999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>99</v>
       </c>
@@ -5556,7 +5593,7 @@
         <v>13.691805</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>100</v>
       </c>
@@ -5597,7 +5634,7 @@
         <v>13.712503999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>101</v>
       </c>
@@ -5638,7 +5675,7 @@
         <v>13.708899000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>102</v>
       </c>
@@ -5679,7 +5716,7 @@
         <v>13.692192</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>103</v>
       </c>
@@ -5720,7 +5757,7 @@
         <v>13.6875</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>104</v>
       </c>
@@ -5761,7 +5798,7 @@
         <v>13.704886999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>105</v>
       </c>
@@ -5802,7 +5839,7 @@
         <v>13.705579</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>106</v>
       </c>
@@ -5843,7 +5880,7 @@
         <v>13.707492</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>107</v>
       </c>
@@ -5884,7 +5921,7 @@
         <v>13.706576999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>108</v>
       </c>
@@ -5925,7 +5962,7 @@
         <v>13.679601</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>109</v>
       </c>
@@ -5966,7 +6003,7 @@
         <v>13.695596</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>110</v>
       </c>
@@ -6007,7 +6044,7 @@
         <v>13.712513</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>111</v>
       </c>
@@ -6048,7 +6085,7 @@
         <v>13.716597999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>112</v>
       </c>
@@ -6089,7 +6126,7 @@
         <v>13.68042</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>113</v>
       </c>
@@ -6130,7 +6167,7 @@
         <v>13.683009</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>114</v>
       </c>
@@ -6171,7 +6208,7 @@
         <v>13.690447000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>115</v>
       </c>
@@ -6210,6 +6247,88 @@
       </c>
       <c r="M113">
         <v>13.693725000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114">
+        <v>116</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" t="s">
+        <v>382</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I114" s="5">
+        <v>0</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="L114" s="6">
+        <v>-89.206522000000007</v>
+      </c>
+      <c r="M114" s="6">
+        <v>13.667845</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115">
+        <v>117</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I115" s="5">
+        <v>0</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L115" s="6">
+        <v>-89.212303000000006</v>
+      </c>
+      <c r="M115" s="6">
+        <v>13.693864</v>
       </c>
     </row>
   </sheetData>

--- a/puntos_ce.xlsx
+++ b/puntos_ce.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="578">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1197,12 +1197,6 @@
   </si>
   <si>
     <t xml:space="preserve">No recibe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTRO ESCOLAR COLONIA QUIÑONEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALLE PRINCIPAL, PASAJE LA LABOR, COLONIA QUIÑONEZ</t>
   </si>
   <si>
     <t xml:space="preserve">CENTRO ESCOLAR COLONIA SANTA LUCIA</t>
@@ -1895,7 +1889,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1941,19 +1935,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2033,16 +2015,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I169" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L205" activeCellId="0" sqref="L205"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A191" activeCellId="0" sqref="A191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="114.43"/>
@@ -6771,7 +6753,7 @@
       <c r="A116" s="10" t="n">
         <v>118</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>386</v>
       </c>
       <c r="C116" s="10"/>
@@ -6787,10 +6769,10 @@
       <c r="G116" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="H116" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="I116" s="12" t="n">
+      <c r="I116" s="3" t="n">
         <v>29</v>
       </c>
       <c r="J116" s="10" t="s">
@@ -6799,10 +6781,10 @@
       <c r="K116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L116" s="13" t="n">
+      <c r="L116" s="11" t="n">
         <v>-89.212615</v>
       </c>
-      <c r="M116" s="12" t="n">
+      <c r="M116" s="3" t="n">
         <v>13.713098</v>
       </c>
     </row>
@@ -6810,7 +6792,7 @@
       <c r="A117" s="10" t="n">
         <v>119</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>389</v>
       </c>
       <c r="C117" s="10"/>
@@ -6826,10 +6808,10 @@
       <c r="G117" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H117" s="11" t="s">
+      <c r="H117" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="I117" s="12" t="n">
+      <c r="I117" s="3" t="n">
         <v>12</v>
       </c>
       <c r="J117" s="10" t="s">
@@ -6838,18 +6820,18 @@
       <c r="K117" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L117" s="12" t="n">
+      <c r="L117" s="3" t="n">
         <v>-89.181177</v>
       </c>
-      <c r="M117" s="12" t="n">
+      <c r="M117" s="3" t="n">
         <v>13.713382</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="n">
         <v>120</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C118" s="10"/>
@@ -6865,11 +6847,11 @@
       <c r="G118" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H118" s="11" t="s">
+      <c r="H118" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="I118" s="12" t="n">
-        <v>0</v>
+      <c r="I118" s="3" t="n">
+        <v>8</v>
       </c>
       <c r="J118" s="10" t="s">
         <v>391</v>
@@ -6877,18 +6859,18 @@
       <c r="K118" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L118" s="12" t="n">
-        <v>-89.566933</v>
-      </c>
-      <c r="M118" s="12" t="n">
-        <v>13.992794</v>
+      <c r="L118" s="11" t="n">
+        <v>-89.221619</v>
+      </c>
+      <c r="M118" s="3" t="n">
+        <v>13.70812</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="n">
         <v>121</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>394</v>
       </c>
       <c r="C119" s="10"/>
@@ -6904,31 +6886,31 @@
       <c r="G119" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H119" s="11" t="s">
+      <c r="H119" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I119" s="12" t="n">
-        <v>8</v>
+      <c r="I119" s="3" t="n">
+        <v>27</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L119" s="13" t="n">
-        <v>-89.221619</v>
-      </c>
-      <c r="M119" s="12" t="n">
-        <v>13.70812</v>
+        <v>396</v>
+      </c>
+      <c r="L119" s="11" t="n">
+        <v>-89.212305</v>
+      </c>
+      <c r="M119" s="3" t="n">
+        <v>13.699409</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="n">
         <v>122</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>396</v>
+      <c r="B120" s="10" t="s">
+        <v>397</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="3" t="s">
@@ -6943,33 +6925,33 @@
       <c r="G120" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H120" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="I120" s="12" t="n">
-        <v>27</v>
+      <c r="H120" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="I120" s="3" t="n">
+        <v>6</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>181</v>
+        <v>391</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="L120" s="13" t="n">
-        <v>-89.212305</v>
-      </c>
-      <c r="M120" s="12" t="n">
-        <v>13.699409</v>
+        <v>20</v>
+      </c>
+      <c r="L120" s="11" t="n">
+        <v>-89.180931</v>
+      </c>
+      <c r="M120" s="3" t="n">
+        <v>13.707918</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="n">
+      <c r="A121" s="3" t="n">
         <v>123</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C121" s="10"/>
+      <c r="C121" s="3"/>
       <c r="D121" s="3" t="s">
         <v>387</v>
       </c>
@@ -6982,33 +6964,33 @@
       <c r="G121" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H121" s="11" t="s">
+      <c r="H121" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="I121" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J121" s="10" t="s">
+      <c r="I121" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J121" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L121" s="13" t="n">
-        <v>-89.180931</v>
-      </c>
-      <c r="M121" s="12" t="n">
-        <v>13.707918</v>
+        <v>401</v>
+      </c>
+      <c r="L121" s="11" t="n">
+        <v>-89.212703</v>
+      </c>
+      <c r="M121" s="3" t="n">
+        <v>13.693706</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="12" t="n">
+      <c r="A122" s="3" t="n">
         <v>124</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C122" s="12"/>
+      <c r="B122" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C122" s="3"/>
       <c r="D122" s="3" t="s">
         <v>387</v>
       </c>
@@ -7021,33 +7003,33 @@
       <c r="G122" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H122" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="I122" s="12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J122" s="12" t="s">
+      <c r="H122" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="I122" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="J122" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="L122" s="13" t="n">
-        <v>-89.212703</v>
-      </c>
-      <c r="M122" s="12" t="n">
-        <v>13.693706</v>
+        <v>404</v>
+      </c>
+      <c r="L122" s="11" t="n">
+        <v>-89.211608</v>
+      </c>
+      <c r="M122" s="3" t="n">
+        <v>13.72273</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12" t="n">
+      <c r="A123" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C123" s="12"/>
+      <c r="B123" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C123" s="3"/>
       <c r="D123" s="3" t="s">
         <v>387</v>
       </c>
@@ -7060,33 +7042,33 @@
       <c r="G123" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H123" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="I123" s="12" t="n">
-        <v>41</v>
-      </c>
-      <c r="J123" s="12" t="s">
+      <c r="H123" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="I123" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J123" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="L123" s="13" t="n">
-        <v>-89.211608</v>
-      </c>
-      <c r="M123" s="12" t="n">
-        <v>13.72273</v>
+        <v>20</v>
+      </c>
+      <c r="L123" s="11" t="n">
+        <v>-89.201527</v>
+      </c>
+      <c r="M123" s="3" t="n">
+        <v>13.690578</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12" t="n">
+      <c r="A124" s="3" t="n">
         <v>126</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C124" s="12"/>
+      <c r="C124" s="3"/>
       <c r="D124" s="3" t="s">
         <v>387</v>
       </c>
@@ -7099,33 +7081,33 @@
       <c r="G124" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H124" s="11" t="s">
+      <c r="H124" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="I124" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J124" s="12" t="s">
+      <c r="I124" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J124" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L124" s="13" t="n">
-        <v>-89.201527</v>
-      </c>
-      <c r="M124" s="12" t="n">
-        <v>13.690578</v>
+        <v>409</v>
+      </c>
+      <c r="L124" s="7" t="n">
+        <v>-89.209158</v>
+      </c>
+      <c r="M124" s="3" t="n">
+        <v>13.689075</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12" t="n">
+      <c r="A125" s="3" t="n">
         <v>127</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C125" s="12"/>
+      <c r="B125" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C125" s="3"/>
       <c r="D125" s="3" t="s">
         <v>387</v>
       </c>
@@ -7138,33 +7120,33 @@
       <c r="G125" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H125" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="I125" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J125" s="12" t="s">
+      <c r="H125" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="I125" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="J125" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="L125" s="14" t="n">
-        <v>-89.209158</v>
-      </c>
-      <c r="M125" s="12" t="n">
-        <v>13.689075</v>
+        <v>412</v>
+      </c>
+      <c r="L125" s="7" t="n">
+        <v>-89.194719</v>
+      </c>
+      <c r="M125" s="3" t="n">
+        <v>13.71282</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12" t="n">
+      <c r="A126" s="3" t="n">
         <v>128</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C126" s="12"/>
+      <c r="B126" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C126" s="3"/>
       <c r="D126" s="3" t="s">
         <v>387</v>
       </c>
@@ -7177,33 +7159,33 @@
       <c r="G126" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H126" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="I126" s="12" t="n">
-        <v>39</v>
-      </c>
-      <c r="J126" s="12" t="s">
-        <v>391</v>
+      <c r="H126" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="I126" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="L126" s="14" t="n">
-        <v>-89.194719</v>
-      </c>
-      <c r="M126" s="12" t="n">
-        <v>13.71282</v>
+        <v>20</v>
+      </c>
+      <c r="L126" s="7" t="n">
+        <v>-89.182013</v>
+      </c>
+      <c r="M126" s="3" t="n">
+        <v>13.694149</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="n">
+      <c r="A127" s="3" t="n">
         <v>129</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C127" s="12"/>
+      <c r="C127" s="3"/>
       <c r="D127" s="3" t="s">
         <v>387</v>
       </c>
@@ -7216,33 +7198,33 @@
       <c r="G127" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H127" s="11" t="s">
+      <c r="H127" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="I127" s="12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J127" s="12" t="s">
-        <v>132</v>
+      <c r="I127" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L127" s="14" t="n">
-        <v>-89.182013</v>
-      </c>
-      <c r="M127" s="12" t="n">
-        <v>13.694149</v>
+        <v>418</v>
+      </c>
+      <c r="L127" s="7" t="n">
+        <v>-89.190272</v>
+      </c>
+      <c r="M127" s="3" t="n">
+        <v>13.687554</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="n">
+      <c r="A128" s="3" t="n">
         <v>130</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C128" s="12"/>
+      <c r="B128" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C128" s="3"/>
       <c r="D128" s="3" t="s">
         <v>387</v>
       </c>
@@ -7255,33 +7237,33 @@
       <c r="G128" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H128" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="I128" s="12" t="n">
-        <v>86</v>
-      </c>
-      <c r="J128" s="12" t="s">
-        <v>419</v>
+      <c r="H128" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I128" s="3" t="n">
+        <v>364</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="L128" s="14" t="n">
-        <v>-89.190272</v>
-      </c>
-      <c r="M128" s="12" t="n">
-        <v>13.687554</v>
+        <v>20</v>
+      </c>
+      <c r="L128" s="7" t="n">
+        <v>-89.191616</v>
+      </c>
+      <c r="M128" s="3" t="n">
+        <v>13.701683</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="n">
+      <c r="A129" s="3" t="n">
         <v>131</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C129" s="12"/>
+      <c r="B129" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
         <v>387</v>
       </c>
@@ -7294,33 +7276,33 @@
       <c r="G129" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H129" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="I129" s="12" t="n">
-        <v>364</v>
-      </c>
-      <c r="J129" s="12" t="s">
+      <c r="H129" s="10" t="s">
         <v>423</v>
       </c>
+      <c r="I129" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>391</v>
+      </c>
       <c r="K129" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L129" s="14" t="n">
-        <v>-89.191616</v>
-      </c>
-      <c r="M129" s="12" t="n">
-        <v>13.701683</v>
+        <v>424</v>
+      </c>
+      <c r="L129" s="7" t="n">
+        <v>-89.181825</v>
+      </c>
+      <c r="M129" s="3" t="n">
+        <v>13.713051</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12" t="n">
+      <c r="A130" s="3" t="n">
         <v>132</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C130" s="12"/>
+      <c r="B130" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C130" s="3"/>
       <c r="D130" s="3" t="s">
         <v>387</v>
       </c>
@@ -7333,33 +7315,33 @@
       <c r="G130" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H130" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="I130" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J130" s="12" t="s">
+      <c r="H130" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="I130" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="J130" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="L130" s="14" t="n">
-        <v>-89.181825</v>
-      </c>
-      <c r="M130" s="12" t="n">
-        <v>13.713051</v>
+        <v>20</v>
+      </c>
+      <c r="L130" s="7" t="n">
+        <v>-89.183451</v>
+      </c>
+      <c r="M130" s="3" t="n">
+        <v>13.70036</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12" t="n">
+      <c r="A131" s="3" t="n">
         <v>133</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C131" s="12"/>
+      <c r="C131" s="3"/>
       <c r="D131" s="3" t="s">
         <v>387</v>
       </c>
@@ -7372,33 +7354,33 @@
       <c r="G131" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H131" s="11" t="s">
+      <c r="H131" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="I131" s="12" t="n">
-        <v>19</v>
-      </c>
-      <c r="J131" s="12" t="s">
-        <v>391</v>
+      <c r="I131" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L131" s="14" t="n">
-        <v>-89.183451</v>
-      </c>
-      <c r="M131" s="12" t="n">
-        <v>13.70036</v>
+        <v>429</v>
+      </c>
+      <c r="L131" s="7" t="n">
+        <v>-89.206068</v>
+      </c>
+      <c r="M131" s="3" t="n">
+        <v>13.71547</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12" t="n">
+      <c r="A132" s="3" t="n">
         <v>134</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="C132" s="12"/>
+      <c r="B132" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C132" s="3"/>
       <c r="D132" s="3" t="s">
         <v>387</v>
       </c>
@@ -7411,33 +7393,33 @@
       <c r="G132" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="I132" s="12" t="n">
-        <v>25</v>
-      </c>
-      <c r="J132" s="12" t="s">
-        <v>181</v>
+      <c r="H132" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="I132" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="L132" s="14" t="n">
-        <v>-89.206068</v>
-      </c>
-      <c r="M132" s="12" t="n">
-        <v>13.71547</v>
+        <v>432</v>
+      </c>
+      <c r="L132" s="7" t="n">
+        <v>-89.195427</v>
+      </c>
+      <c r="M132" s="3" t="n">
+        <v>13.68631</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12" t="n">
+      <c r="A133" s="3" t="n">
         <v>135</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C133" s="12"/>
+      <c r="B133" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C133" s="3"/>
       <c r="D133" s="3" t="s">
         <v>387</v>
       </c>
@@ -7450,33 +7432,33 @@
       <c r="G133" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H133" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="I133" s="12" t="n">
-        <v>101</v>
-      </c>
-      <c r="J133" s="12" t="s">
-        <v>419</v>
+      <c r="H133" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="I133" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="L133" s="14" t="n">
-        <v>-89.195427</v>
-      </c>
-      <c r="M133" s="12" t="n">
-        <v>13.68631</v>
+        <v>20</v>
+      </c>
+      <c r="L133" s="7" t="n">
+        <v>-89.179054</v>
+      </c>
+      <c r="M133" s="3" t="n">
+        <v>13.695622</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="12" t="n">
+      <c r="A134" s="3" t="n">
         <v>136</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C134" s="12"/>
+      <c r="B134" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C134" s="3"/>
       <c r="D134" s="3" t="s">
         <v>387</v>
       </c>
@@ -7489,33 +7471,33 @@
       <c r="G134" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H134" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="I134" s="12" t="n">
-        <v>35</v>
-      </c>
-      <c r="J134" s="12" t="s">
+      <c r="H134" s="10" t="s">
         <v>437</v>
       </c>
+      <c r="I134" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="K134" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L134" s="14" t="n">
-        <v>-89.179054</v>
-      </c>
-      <c r="M134" s="12" t="n">
-        <v>13.695622</v>
+        <v>438</v>
+      </c>
+      <c r="L134" s="7" t="n">
+        <v>-89.192777</v>
+      </c>
+      <c r="M134" s="3" t="n">
+        <v>13.691182</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12" t="n">
+      <c r="A135" s="3" t="n">
         <v>137</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C135" s="12"/>
+      <c r="B135" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C135" s="3"/>
       <c r="D135" s="3" t="s">
         <v>387</v>
       </c>
@@ -7528,33 +7510,33 @@
       <c r="G135" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H135" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="I135" s="12" t="n">
-        <v>32</v>
-      </c>
-      <c r="J135" s="12" t="s">
-        <v>181</v>
+      <c r="H135" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="I135" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="L135" s="14" t="n">
-        <v>-89.192777</v>
-      </c>
-      <c r="M135" s="12" t="n">
-        <v>13.691182</v>
+        <v>441</v>
+      </c>
+      <c r="L135" s="7" t="n">
+        <v>-89.191278</v>
+      </c>
+      <c r="M135" s="3" t="n">
+        <v>13.681215</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12" t="n">
+      <c r="A136" s="3" t="n">
         <v>138</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C136" s="12"/>
+      <c r="B136" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C136" s="3"/>
       <c r="D136" s="3" t="s">
         <v>387</v>
       </c>
@@ -7567,33 +7549,33 @@
       <c r="G136" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H136" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="I136" s="12" t="n">
-        <v>38</v>
-      </c>
-      <c r="J136" s="12" t="s">
+      <c r="H136" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="I136" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="J136" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="L136" s="14" t="n">
-        <v>-89.191278</v>
-      </c>
-      <c r="M136" s="12" t="n">
-        <v>13.681215</v>
+        <v>20</v>
+      </c>
+      <c r="L136" s="7" t="n">
+        <v>-89.188601</v>
+      </c>
+      <c r="M136" s="3" t="n">
+        <v>13.696283</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="12" t="n">
+      <c r="A137" s="3" t="n">
         <v>139</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C137" s="12"/>
+      <c r="C137" s="3"/>
       <c r="D137" s="3" t="s">
         <v>387</v>
       </c>
@@ -7606,33 +7588,33 @@
       <c r="G137" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H137" s="11" t="s">
+      <c r="H137" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="I137" s="12" t="n">
-        <v>27</v>
-      </c>
-      <c r="J137" s="12" t="s">
+      <c r="I137" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="J137" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L137" s="14" t="n">
-        <v>-89.188601</v>
-      </c>
-      <c r="M137" s="12" t="n">
-        <v>13.696283</v>
+        <v>446</v>
+      </c>
+      <c r="L137" s="7" t="n">
+        <v>-89.24847</v>
+      </c>
+      <c r="M137" s="3" t="n">
+        <v>13.70499</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12" t="n">
+      <c r="A138" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C138" s="12"/>
+      <c r="B138" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C138" s="3"/>
       <c r="D138" s="3" t="s">
         <v>387</v>
       </c>
@@ -7645,33 +7627,33 @@
       <c r="G138" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H138" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="I138" s="12" t="n">
-        <v>175</v>
-      </c>
-      <c r="J138" s="12" t="s">
+      <c r="H138" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="I138" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="J138" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="L138" s="14" t="n">
-        <v>-89.24847</v>
-      </c>
-      <c r="M138" s="12" t="n">
-        <v>13.70499</v>
+        <v>449</v>
+      </c>
+      <c r="L138" s="7" t="n">
+        <v>-89.193241</v>
+      </c>
+      <c r="M138" s="3" t="n">
+        <v>13.692764</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12" t="n">
+      <c r="A139" s="3" t="n">
         <v>141</v>
       </c>
-      <c r="B139" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="C139" s="12"/>
+      <c r="B139" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C139" s="3"/>
       <c r="D139" s="3" t="s">
         <v>387</v>
       </c>
@@ -7684,33 +7666,33 @@
       <c r="G139" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H139" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I139" s="12" t="n">
-        <v>55</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>391</v>
+      <c r="H139" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="I139" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="L139" s="14" t="n">
-        <v>-89.193241</v>
-      </c>
-      <c r="M139" s="12" t="n">
-        <v>13.692764</v>
+        <v>20</v>
+      </c>
+      <c r="L139" s="7" t="n">
+        <v>-89.214717</v>
+      </c>
+      <c r="M139" s="3" t="n">
+        <v>13.682848</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12" t="n">
+      <c r="A140" s="3" t="n">
         <v>142</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C140" s="12"/>
+      <c r="C140" s="3"/>
       <c r="D140" s="3" t="s">
         <v>387</v>
       </c>
@@ -7723,33 +7705,33 @@
       <c r="G140" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H140" s="11" t="s">
+      <c r="H140" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="I140" s="12" t="n">
-        <v>22</v>
-      </c>
-      <c r="J140" s="12" t="s">
-        <v>181</v>
+      <c r="I140" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L140" s="14" t="n">
-        <v>-89.214717</v>
-      </c>
-      <c r="M140" s="12" t="n">
-        <v>13.682848</v>
+        <v>454</v>
+      </c>
+      <c r="L140" s="7" t="n">
+        <v>-89.177821</v>
+      </c>
+      <c r="M140" s="3" t="n">
+        <v>13.705559</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12" t="n">
+      <c r="A141" s="3" t="n">
         <v>143</v>
       </c>
-      <c r="B141" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="C141" s="12"/>
+      <c r="B141" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
         <v>387</v>
       </c>
@@ -7762,33 +7744,33 @@
       <c r="G141" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H141" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="I141" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" s="12" t="s">
-        <v>391</v>
+      <c r="H141" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="I141" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="L141" s="14" t="n">
-        <v>-89.177821</v>
-      </c>
-      <c r="M141" s="12" t="n">
-        <v>13.705559</v>
+        <v>457</v>
+      </c>
+      <c r="L141" s="7" t="n">
+        <v>-89.237565</v>
+      </c>
+      <c r="M141" s="3" t="n">
+        <v>13.705584</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12" t="n">
+      <c r="A142" s="3" t="n">
         <v>144</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C142" s="12"/>
+      <c r="B142" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C142" s="3"/>
       <c r="D142" s="3" t="s">
         <v>387</v>
       </c>
@@ -7801,33 +7783,33 @@
       <c r="G142" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H142" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="I142" s="12" t="n">
-        <v>61</v>
-      </c>
-      <c r="J142" s="12" t="s">
-        <v>132</v>
+      <c r="H142" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="I142" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="L142" s="14" t="n">
-        <v>-89.237565</v>
-      </c>
-      <c r="M142" s="12" t="n">
-        <v>13.705584</v>
+        <v>460</v>
+      </c>
+      <c r="L142" s="7" t="n">
+        <v>-89.181126</v>
+      </c>
+      <c r="M142" s="3" t="n">
+        <v>13.718242</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="12" t="n">
+      <c r="A143" s="3" t="n">
         <v>145</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="C143" s="12"/>
+      <c r="B143" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C143" s="3"/>
       <c r="D143" s="3" t="s">
         <v>387</v>
       </c>
@@ -7840,33 +7822,33 @@
       <c r="G143" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H143" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="I143" s="12" t="n">
-        <v>22</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>391</v>
+      <c r="H143" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="I143" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="L143" s="14" t="n">
-        <v>-89.181126</v>
-      </c>
-      <c r="M143" s="12" t="n">
-        <v>13.718242</v>
+        <v>20</v>
+      </c>
+      <c r="L143" s="7" t="n">
+        <v>-89.192498</v>
+      </c>
+      <c r="M143" s="3" t="n">
+        <v>13.702109</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="12" t="n">
+      <c r="A144" s="3" t="n">
         <v>146</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C144" s="12"/>
+      <c r="C144" s="3"/>
       <c r="D144" s="3" t="s">
         <v>387</v>
       </c>
@@ -7879,33 +7861,33 @@
       <c r="G144" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H144" s="11" t="s">
+      <c r="H144" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="I144" s="12" t="n">
-        <v>21</v>
-      </c>
-      <c r="J144" s="12" t="s">
-        <v>419</v>
+      <c r="I144" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L144" s="14" t="n">
-        <v>-89.192498</v>
-      </c>
-      <c r="M144" s="12" t="n">
-        <v>13.702109</v>
+        <v>465</v>
+      </c>
+      <c r="L144" s="7" t="n">
+        <v>-89.193359</v>
+      </c>
+      <c r="M144" s="3" t="n">
+        <v>13.685799</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12" t="n">
+      <c r="A145" s="3" t="n">
         <v>147</v>
       </c>
-      <c r="B145" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C145" s="12"/>
+      <c r="B145" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C145" s="3"/>
       <c r="D145" s="3" t="s">
         <v>387</v>
       </c>
@@ -7918,33 +7900,33 @@
       <c r="G145" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H145" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="I145" s="12" t="n">
-        <v>172</v>
-      </c>
-      <c r="J145" s="12" t="s">
-        <v>437</v>
+      <c r="H145" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I145" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="L145" s="14" t="n">
-        <v>-89.193359</v>
-      </c>
-      <c r="M145" s="12" t="n">
-        <v>13.685799</v>
+        <v>468</v>
+      </c>
+      <c r="L145" s="7" t="n">
+        <v>-89.183801</v>
+      </c>
+      <c r="M145" s="3" t="n">
+        <v>13.681814</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="12" t="n">
+      <c r="A146" s="3" t="n">
         <v>148</v>
       </c>
-      <c r="B146" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C146" s="12"/>
+      <c r="B146" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C146" s="3"/>
       <c r="D146" s="3" t="s">
         <v>387</v>
       </c>
@@ -7957,33 +7939,33 @@
       <c r="G146" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H146" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="I146" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J146" s="12" t="s">
+      <c r="H146" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I146" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="J146" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="L146" s="14" t="n">
-        <v>-89.183801</v>
-      </c>
-      <c r="M146" s="12" t="n">
-        <v>13.681814</v>
+        <v>471</v>
+      </c>
+      <c r="L146" s="7" t="n">
+        <v>-89.201469</v>
+      </c>
+      <c r="M146" s="3" t="n">
+        <v>13.688991</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="12" t="n">
+      <c r="A147" s="3" t="n">
         <v>149</v>
       </c>
-      <c r="B147" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="C147" s="12"/>
+      <c r="B147" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
         <v>387</v>
       </c>
@@ -7996,33 +7978,33 @@
       <c r="G147" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H147" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="I147" s="12" t="n">
-        <v>19</v>
-      </c>
-      <c r="J147" s="12" t="s">
+      <c r="H147" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="I147" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="L147" s="14" t="n">
-        <v>-89.201469</v>
-      </c>
-      <c r="M147" s="12" t="n">
-        <v>13.688991</v>
+        <v>20</v>
+      </c>
+      <c r="L147" s="7" t="n">
+        <v>-89.205442</v>
+      </c>
+      <c r="M147" s="3" t="n">
+        <v>13.714927</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="12" t="n">
+      <c r="A148" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C148" s="12"/>
+      <c r="C148" s="3"/>
       <c r="D148" s="3" t="s">
         <v>387</v>
       </c>
@@ -8035,33 +8017,33 @@
       <c r="G148" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H148" s="11" t="s">
+      <c r="H148" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="I148" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" s="12" t="s">
-        <v>391</v>
+      <c r="I148" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L148" s="14" t="n">
-        <v>-89.205442</v>
-      </c>
-      <c r="M148" s="12" t="n">
-        <v>13.714927</v>
+        <v>477</v>
+      </c>
+      <c r="L148" s="7" t="n">
+        <v>-89.188603</v>
+      </c>
+      <c r="M148" s="3" t="n">
+        <v>13.695563</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="12" t="n">
+      <c r="A149" s="3" t="n">
         <v>151</v>
       </c>
-      <c r="B149" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="C149" s="12"/>
+      <c r="B149" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C149" s="3"/>
       <c r="D149" s="3" t="s">
         <v>387</v>
       </c>
@@ -8074,33 +8056,33 @@
       <c r="G149" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H149" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="I149" s="12" t="n">
-        <v>66</v>
-      </c>
-      <c r="J149" s="12" t="s">
-        <v>478</v>
+      <c r="H149" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="I149" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="L149" s="14" t="n">
-        <v>-89.188603</v>
-      </c>
-      <c r="M149" s="12" t="n">
-        <v>13.695563</v>
+        <v>20</v>
+      </c>
+      <c r="L149" s="7" t="n">
+        <v>-89.182415</v>
+      </c>
+      <c r="M149" s="3" t="n">
+        <v>13.702174</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="12" t="n">
+      <c r="A150" s="3" t="n">
         <v>152</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C150" s="12"/>
+      <c r="C150" s="3"/>
       <c r="D150" s="3" t="s">
         <v>387</v>
       </c>
@@ -8113,33 +8095,33 @@
       <c r="G150" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H150" s="11" t="s">
+      <c r="H150" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="I150" s="12" t="n">
-        <v>63</v>
-      </c>
-      <c r="J150" s="12" t="s">
-        <v>391</v>
+      <c r="I150" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L150" s="14" t="n">
-        <v>-89.182415</v>
-      </c>
-      <c r="M150" s="12" t="n">
-        <v>13.702174</v>
+        <v>482</v>
+      </c>
+      <c r="L150" s="7" t="n">
+        <v>-89.185002</v>
+      </c>
+      <c r="M150" s="3" t="n">
+        <v>13.701283</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="12" t="n">
+      <c r="A151" s="3" t="n">
         <v>153</v>
       </c>
-      <c r="B151" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="C151" s="12"/>
+      <c r="B151" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C151" s="3"/>
       <c r="D151" s="3" t="s">
         <v>387</v>
       </c>
@@ -8152,33 +8134,33 @@
       <c r="G151" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H151" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="I151" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="J151" s="12" t="s">
-        <v>132</v>
+      <c r="H151" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I151" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="L151" s="14" t="n">
-        <v>-89.185002</v>
-      </c>
-      <c r="M151" s="12" t="n">
-        <v>13.701283</v>
+        <v>485</v>
+      </c>
+      <c r="L151" s="7" t="n">
+        <v>-89.190761</v>
+      </c>
+      <c r="M151" s="3" t="n">
+        <v>13.716776</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="12" t="n">
+      <c r="A152" s="3" t="n">
         <v>154</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C152" s="12"/>
+      <c r="B152" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C152" s="3"/>
       <c r="D152" s="3" t="s">
         <v>387</v>
       </c>
@@ -8191,33 +8173,33 @@
       <c r="G152" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H152" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="I152" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" s="12" t="s">
-        <v>391</v>
+      <c r="H152" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I152" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="L152" s="14" t="n">
-        <v>-89.190761</v>
-      </c>
-      <c r="M152" s="12" t="n">
-        <v>13.716776</v>
+        <v>488</v>
+      </c>
+      <c r="L152" s="7" t="n">
+        <v>-89.18091</v>
+      </c>
+      <c r="M152" s="3" t="n">
+        <v>13.713483</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="12" t="n">
+      <c r="A153" s="3" t="n">
         <v>155</v>
       </c>
-      <c r="B153" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="C153" s="12"/>
+      <c r="B153" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C153" s="3"/>
       <c r="D153" s="3" t="s">
         <v>387</v>
       </c>
@@ -8230,33 +8212,33 @@
       <c r="G153" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H153" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="I153" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="J153" s="12" t="s">
-        <v>132</v>
+      <c r="H153" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="I153" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="L153" s="14" t="n">
-        <v>-89.18091</v>
-      </c>
-      <c r="M153" s="12" t="n">
-        <v>13.713483</v>
+        <v>20</v>
+      </c>
+      <c r="L153" s="7" t="n">
+        <v>-89.184949</v>
+      </c>
+      <c r="M153" s="3" t="n">
+        <v>13.688765</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="12" t="n">
+      <c r="A154" s="3" t="n">
         <v>156</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="C154" s="12"/>
+      <c r="C154" s="3"/>
       <c r="D154" s="3" t="s">
         <v>387</v>
       </c>
@@ -8269,501 +8251,501 @@
       <c r="G154" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H154" s="11" t="s">
+      <c r="H154" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="I154" s="12" t="n">
+      <c r="I154" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="L154" s="7" t="n">
+        <v>-89.20404</v>
+      </c>
+      <c r="M154" s="3" t="n">
+        <v>13.714081</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="n">
+        <v>157</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="I155" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="L155" s="7" t="n">
+        <v>-89.243008</v>
+      </c>
+      <c r="M155" s="3" t="n">
+        <v>13.690646</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="n">
+        <v>158</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="I156" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="L156" s="7" t="n">
+        <v>-89.245457</v>
+      </c>
+      <c r="M156" s="3" t="n">
+        <v>13.70524</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="n">
+        <v>159</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="I157" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="L157" s="7" t="n">
+        <v>-89.222581</v>
+      </c>
+      <c r="M157" s="3" t="n">
+        <v>13.704889</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="I158" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="L158" s="7" t="n">
+        <v>-89.238696</v>
+      </c>
+      <c r="M158" s="3" t="n">
+        <v>13.709291</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="n">
+        <v>161</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="I159" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="J154" s="12" t="s">
+      <c r="J159" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="K154" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L154" s="14" t="n">
-        <v>-89.184949</v>
-      </c>
-      <c r="M154" s="12" t="n">
-        <v>13.688765</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="12" t="n">
-        <v>157</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="C155" s="12"/>
-      <c r="D155" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="I155" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J155" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K155" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="L155" s="14" t="n">
-        <v>-89.20404</v>
-      </c>
-      <c r="M155" s="12" t="n">
-        <v>13.714081</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="12" t="n">
-        <v>158</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H156" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="I156" s="12" t="n">
+      <c r="K159" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="L159" s="7" t="n">
+        <v>-89.227664</v>
+      </c>
+      <c r="M159" s="3" t="n">
+        <v>13.70214</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="n">
+        <v>162</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="I160" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J156" s="12" t="s">
+      <c r="J160" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="K156" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="L156" s="14" t="n">
-        <v>-89.243008</v>
-      </c>
-      <c r="M156" s="12" t="n">
-        <v>13.690646</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="12" t="n">
-        <v>159</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="I157" s="12" t="n">
+      <c r="K160" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="L160" s="7" t="n">
+        <v>-89.253597</v>
+      </c>
+      <c r="M160" s="3" t="n">
+        <v>13.707933</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3" t="n">
+        <v>163</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="I161" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="L161" s="7" t="n">
+        <v>-89.221442</v>
+      </c>
+      <c r="M161" s="3" t="n">
+        <v>13.702451</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3" t="n">
+        <v>164</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="I162" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="L162" s="7" t="n">
+        <v>-89.218784</v>
+      </c>
+      <c r="M162" s="3" t="n">
+        <v>13.705245</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="n">
+        <v>165</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="I163" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="L163" s="7" t="n">
+        <v>-89.178321</v>
+      </c>
+      <c r="M163" s="3" t="n">
+        <v>13.700803</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="n">
+        <v>166</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="I164" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="L164" s="7" t="n">
+        <v>-89.235271</v>
+      </c>
+      <c r="M164" s="3" t="n">
+        <v>13.705298</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3" t="n">
+        <v>167</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="I165" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J157" s="12" t="s">
+      <c r="J165" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="K157" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="L157" s="14" t="n">
-        <v>-89.245457</v>
-      </c>
-      <c r="M157" s="12" t="n">
-        <v>13.70524</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="12" t="n">
-        <v>160</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H158" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="I158" s="12" t="n">
-        <v>13</v>
-      </c>
-      <c r="J158" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K158" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="L158" s="14" t="n">
-        <v>-89.222581</v>
-      </c>
-      <c r="M158" s="12" t="n">
-        <v>13.704889</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="12" t="n">
-        <v>161</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="I159" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J159" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="L159" s="14" t="n">
-        <v>-89.238696</v>
-      </c>
-      <c r="M159" s="12" t="n">
-        <v>13.709291</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="12" t="n">
-        <v>162</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="C160" s="12"/>
-      <c r="D160" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H160" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="I160" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J160" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K160" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="L160" s="14" t="n">
-        <v>-89.227664</v>
-      </c>
-      <c r="M160" s="12" t="n">
-        <v>13.70214</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="12" t="n">
-        <v>163</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="C161" s="12"/>
-      <c r="D161" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H161" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="I161" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K161" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="L161" s="14" t="n">
-        <v>-89.253597</v>
-      </c>
-      <c r="M161" s="12" t="n">
-        <v>13.707933</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="12" t="n">
-        <v>164</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="C162" s="12"/>
-      <c r="D162" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H162" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="I162" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J162" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K162" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="L162" s="14" t="n">
-        <v>-89.221442</v>
-      </c>
-      <c r="M162" s="12" t="n">
-        <v>13.702451</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="12" t="n">
-        <v>165</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="C163" s="12"/>
-      <c r="D163" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H163" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="I163" s="12" t="n">
-        <v>23</v>
-      </c>
-      <c r="J163" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K163" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="L163" s="14" t="n">
-        <v>-89.218784</v>
-      </c>
-      <c r="M163" s="12" t="n">
-        <v>13.705245</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="12" t="n">
-        <v>166</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="C164" s="12"/>
-      <c r="D164" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H164" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="I164" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="J164" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K164" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="L164" s="14" t="n">
-        <v>-89.178321</v>
-      </c>
-      <c r="M164" s="12" t="n">
-        <v>13.700803</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12" t="n">
-        <v>167</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="C165" s="12"/>
-      <c r="D165" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="I165" s="12" t="n">
+      <c r="K165" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="L165" s="7" t="n">
+        <v>-89.210737</v>
+      </c>
+      <c r="M165" s="3" t="n">
+        <v>13.707132</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="I166" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J165" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K165" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="L165" s="14" t="n">
-        <v>-89.235271</v>
-      </c>
-      <c r="M165" s="12" t="n">
-        <v>13.705298</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="12" t="n">
-        <v>168</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="C166" s="12"/>
-      <c r="D166" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H166" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="I166" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" s="12" t="s">
+      <c r="J166" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K166" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="L166" s="14" t="n">
-        <v>-89.210737</v>
-      </c>
-      <c r="M166" s="12" t="n">
-        <v>13.707132</v>
+      <c r="L166" s="7" t="n">
+        <v>-89.232965</v>
+      </c>
+      <c r="M166" s="3" t="n">
+        <v>13.693469</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12" t="n">
+      <c r="A167" s="3" t="n">
         <v>169</v>
       </c>
-      <c r="B167" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C167" s="12"/>
+      <c r="B167" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C167" s="3"/>
       <c r="D167" s="3" t="s">
         <v>15</v>
       </c>
@@ -8776,111 +8758,111 @@
       <c r="G167" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H167" s="11" t="s">
+      <c r="H167" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="I167" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" s="12" t="s">
+      <c r="I167" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K167" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L167" s="7" t="n">
+        <v>-89.23929</v>
+      </c>
+      <c r="M167" s="3" t="n">
+        <v>13.695543</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3" t="n">
+        <v>170</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="L167" s="14" t="n">
-        <v>-89.232965</v>
-      </c>
-      <c r="M167" s="12" t="n">
-        <v>13.693469</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="12" t="n">
-        <v>170</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C168" s="12"/>
-      <c r="D168" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H168" s="11" t="s">
+      <c r="I168" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K168" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="I168" s="12" t="n">
+      <c r="L168" s="7" t="n">
+        <v>-89.230805</v>
+      </c>
+      <c r="M168" s="3" t="n">
+        <v>13.696263</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3" t="n">
+        <v>171</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="I169" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K168" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L168" s="14" t="n">
-        <v>-89.23929</v>
-      </c>
-      <c r="M168" s="12" t="n">
-        <v>13.695543</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="12" t="n">
-        <v>171</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C169" s="12"/>
-      <c r="D169" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="I169" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" s="12" t="s">
+      <c r="J169" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K169" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="L169" s="14" t="n">
-        <v>-89.230805</v>
-      </c>
-      <c r="M169" s="12" t="n">
-        <v>13.696263</v>
+      <c r="L169" s="7" t="n">
+        <v>-89.256372</v>
+      </c>
+      <c r="M169" s="3" t="n">
+        <v>13.7117</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="12" t="n">
+      <c r="A170" s="3" t="n">
         <v>172</v>
       </c>
-      <c r="B170" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C170" s="12"/>
+      <c r="B170" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C170" s="3"/>
       <c r="D170" s="3" t="s">
         <v>15</v>
       </c>
@@ -8893,33 +8875,33 @@
       <c r="G170" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H170" s="11" t="s">
+      <c r="H170" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="I170" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" s="12" t="s">
+      <c r="I170" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K170" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="L170" s="14" t="n">
-        <v>-89.256372</v>
-      </c>
-      <c r="M170" s="12" t="n">
-        <v>13.7117</v>
+      <c r="L170" s="7" t="n">
+        <v>-89.223832</v>
+      </c>
+      <c r="M170" s="3" t="n">
+        <v>13.697799</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="12" t="n">
+      <c r="A171" s="3" t="n">
         <v>173</v>
       </c>
-      <c r="B171" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C171" s="12"/>
+      <c r="B171" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C171" s="3"/>
       <c r="D171" s="3" t="s">
         <v>15</v>
       </c>
@@ -8932,33 +8914,33 @@
       <c r="G171" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H171" s="11" t="s">
+      <c r="H171" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="I171" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" s="12" t="s">
+      <c r="I171" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J171" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K171" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="L171" s="14" t="n">
-        <v>-89.223832</v>
-      </c>
-      <c r="M171" s="12" t="n">
-        <v>13.697799</v>
+      <c r="L171" s="7" t="n">
+        <v>-89.210209</v>
+      </c>
+      <c r="M171" s="3" t="n">
+        <v>13.702619</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="12" t="n">
+      <c r="A172" s="3" t="n">
         <v>174</v>
       </c>
-      <c r="B172" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C172" s="12"/>
+      <c r="B172" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C172" s="3"/>
       <c r="D172" s="3" t="s">
         <v>15</v>
       </c>
@@ -8971,33 +8953,33 @@
       <c r="G172" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H172" s="11" t="s">
+      <c r="H172" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="I172" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="J172" s="12" t="s">
+      <c r="I172" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K172" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="L172" s="14" t="n">
-        <v>-89.210209</v>
-      </c>
-      <c r="M172" s="12" t="n">
-        <v>13.702619</v>
+      <c r="L172" s="7" t="n">
+        <v>-89.240028</v>
+      </c>
+      <c r="M172" s="3" t="n">
+        <v>13.703282</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="12" t="n">
+      <c r="A173" s="3" t="n">
         <v>175</v>
       </c>
-      <c r="B173" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C173" s="12"/>
+      <c r="B173" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C173" s="3"/>
       <c r="D173" s="3" t="s">
         <v>15</v>
       </c>
@@ -9010,33 +8992,33 @@
       <c r="G173" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H173" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="I173" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" s="12" t="s">
-        <v>391</v>
+      <c r="H173" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="I173" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="L173" s="14" t="n">
-        <v>-89.240028</v>
-      </c>
-      <c r="M173" s="12" t="n">
-        <v>13.703282</v>
+        <v>542</v>
+      </c>
+      <c r="L173" s="7" t="n">
+        <v>-89.24276</v>
+      </c>
+      <c r="M173" s="3" t="n">
+        <v>13.68203</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="12" t="n">
+      <c r="A174" s="3" t="n">
         <v>176</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="C174" s="12"/>
+      <c r="B174" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C174" s="3"/>
       <c r="D174" s="3" t="s">
         <v>15</v>
       </c>
@@ -9049,33 +9031,33 @@
       <c r="G174" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H174" s="11" t="s">
+      <c r="H174" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="I174" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J174" s="12" t="s">
+      <c r="I174" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J174" s="3" t="s">
         <v>132</v>
       </c>
       <c r="K174" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="L174" s="14" t="n">
-        <v>-89.24224</v>
-      </c>
-      <c r="M174" s="12" t="n">
-        <v>13.680559</v>
+      <c r="L174" s="7" t="n">
+        <v>-89.203052</v>
+      </c>
+      <c r="M174" s="3" t="n">
+        <v>13.714146</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="12" t="n">
+      <c r="A175" s="3" t="n">
         <v>177</v>
       </c>
-      <c r="B175" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C175" s="12"/>
+      <c r="B175" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" s="3"/>
       <c r="D175" s="3" t="s">
         <v>15</v>
       </c>
@@ -9088,33 +9070,33 @@
       <c r="G175" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H175" s="11" t="s">
+      <c r="H175" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="I175" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J175" s="12" t="s">
-        <v>132</v>
+      <c r="I175" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="K175" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="L175" s="14" t="n">
-        <v>-89.203052</v>
-      </c>
-      <c r="M175" s="12" t="n">
-        <v>13.714146</v>
+      <c r="L175" s="7" t="n">
+        <v>-89.191294</v>
+      </c>
+      <c r="M175" s="3" t="n">
+        <v>13.706586</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="12" t="n">
+      <c r="A176" s="3" t="n">
         <v>178</v>
       </c>
-      <c r="B176" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C176" s="12"/>
+      <c r="B176" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C176" s="3"/>
       <c r="D176" s="3" t="s">
         <v>15</v>
       </c>
@@ -9127,33 +9109,33 @@
       <c r="G176" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H176" s="11" t="s">
+      <c r="H176" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="I176" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J176" s="12" t="s">
+      <c r="I176" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J176" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K176" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="L176" s="14" t="n">
-        <v>-89.191294</v>
-      </c>
-      <c r="M176" s="12" t="n">
-        <v>13.706586</v>
+      <c r="L176" s="7" t="n">
+        <v>-89.191279</v>
+      </c>
+      <c r="M176" s="3" t="n">
+        <v>13.680828</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="12" t="n">
+      <c r="A177" s="3" t="n">
         <v>179</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C177" s="12"/>
+      <c r="B177" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
         <v>15</v>
       </c>
@@ -9166,33 +9148,33 @@
       <c r="G177" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H177" s="11" t="s">
+      <c r="H177" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="I177" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="J177" s="12" t="s">
+      <c r="I177" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K177" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="L177" s="14" t="n">
-        <v>-89.191279</v>
-      </c>
-      <c r="M177" s="12" t="n">
-        <v>13.680828</v>
+      <c r="L177" s="7" t="n">
+        <v>-89.19128</v>
+      </c>
+      <c r="M177" s="3" t="n">
+        <v>13.683268</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="12" t="n">
+      <c r="A178" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="B178" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C178" s="12"/>
+      <c r="B178" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C178" s="3"/>
       <c r="D178" s="3" t="s">
         <v>15</v>
       </c>
@@ -9205,33 +9187,33 @@
       <c r="G178" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H178" s="11" t="s">
+      <c r="H178" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="I178" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" s="12" t="s">
+      <c r="I178" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J178" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K178" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="L178" s="14" t="n">
-        <v>-89.19128</v>
-      </c>
-      <c r="M178" s="12" t="n">
-        <v>13.683268</v>
+      <c r="L178" s="7" t="n">
+        <v>-89.229835</v>
+      </c>
+      <c r="M178" s="3" t="n">
+        <v>13.697852</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="12" t="n">
+      <c r="A179" s="3" t="n">
         <v>181</v>
       </c>
-      <c r="B179" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C179" s="12"/>
+      <c r="B179" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C179" s="3"/>
       <c r="D179" s="3" t="s">
         <v>15</v>
       </c>
@@ -9244,38 +9226,38 @@
       <c r="G179" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H179" s="11" t="s">
+      <c r="H179" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="I179" s="12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J179" s="12" t="s">
-        <v>391</v>
+      <c r="I179" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="K179" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="L179" s="14" t="n">
-        <v>-89.229835</v>
-      </c>
-      <c r="M179" s="12" t="n">
-        <v>13.697852</v>
+      <c r="L179" s="7" t="n">
+        <v>-89.228287</v>
+      </c>
+      <c r="M179" s="3" t="n">
+        <v>13.674987</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="12" t="n">
+      <c r="A180" s="3" t="n">
         <v>182</v>
       </c>
-      <c r="B180" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C180" s="12"/>
+      <c r="B180" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C180" s="3"/>
       <c r="D180" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>17</v>
@@ -9283,38 +9265,38 @@
       <c r="G180" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H180" s="11" t="s">
+      <c r="H180" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="I180" s="12" t="n">
-        <v>13</v>
-      </c>
-      <c r="J180" s="12" t="s">
-        <v>132</v>
+      <c r="I180" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="K180" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="L180" s="14" t="n">
-        <v>-89.228287</v>
-      </c>
-      <c r="M180" s="12" t="n">
-        <v>13.674987</v>
+      <c r="L180" s="7" t="n">
+        <v>-89.188573</v>
+      </c>
+      <c r="M180" s="3" t="n">
+        <v>13.689968</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="12" t="n">
+      <c r="A181" s="3" t="n">
         <v>183</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C181" s="12"/>
+      <c r="B181" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C181" s="3"/>
       <c r="D181" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>17</v>
@@ -9322,35 +9304,35 @@
       <c r="G181" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H181" s="11" t="s">
+      <c r="H181" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="I181" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J181" s="12" t="s">
+      <c r="I181" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J181" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K181" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="L181" s="14" t="n">
-        <v>-89.188573</v>
-      </c>
-      <c r="M181" s="12" t="n">
-        <v>13.689968</v>
+      <c r="L181" s="7" t="n">
+        <v>-89.187146</v>
+      </c>
+      <c r="M181" s="3" t="n">
+        <v>13.702182</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="12" t="n">
+      <c r="A182" s="3" t="n">
         <v>184</v>
       </c>
-      <c r="B182" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C182" s="12"/>
+      <c r="B182" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C182" s="3"/>
       <c r="D182" s="3" t="s">
-        <v>15</v>
+        <v>387</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>16</v>
@@ -9361,35 +9343,35 @@
       <c r="G182" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H182" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="I182" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J182" s="12" t="s">
+      <c r="H182" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="I182" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="L182" s="14" t="n">
-        <v>-89.187146</v>
-      </c>
-      <c r="M182" s="12" t="n">
-        <v>13.702182</v>
+        <v>561</v>
+      </c>
+      <c r="L182" s="7" t="n">
+        <v>-89.190549</v>
+      </c>
+      <c r="M182" s="3" t="n">
+        <v>13.702856</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="12" t="n">
+      <c r="A183" s="3" t="n">
         <v>185</v>
       </c>
-      <c r="B183" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="C183" s="12"/>
+      <c r="B183" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C183" s="3"/>
       <c r="D183" s="3" t="s">
-        <v>387</v>
+        <v>15</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>16</v>
@@ -9400,33 +9382,33 @@
       <c r="G183" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H183" s="11" t="s">
+      <c r="H183" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="I183" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" s="12" t="s">
+      <c r="I183" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J183" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K183" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="L183" s="14" t="n">
-        <v>-89.190549</v>
-      </c>
-      <c r="M183" s="12" t="n">
-        <v>13.702856</v>
+      <c r="L183" s="7" t="n">
+        <v>-89.217358</v>
+      </c>
+      <c r="M183" s="3" t="n">
+        <v>13.722426</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="12" t="n">
+      <c r="A184" s="3" t="n">
         <v>186</v>
       </c>
-      <c r="B184" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C184" s="12"/>
+      <c r="B184" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C184" s="3"/>
       <c r="D184" s="3" t="s">
         <v>15</v>
       </c>
@@ -9439,33 +9421,33 @@
       <c r="G184" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H184" s="11" t="s">
+      <c r="H184" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="I184" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J184" s="12" t="s">
+      <c r="I184" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J184" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K184" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="L184" s="14" t="n">
-        <v>-89.217358</v>
-      </c>
-      <c r="M184" s="12" t="n">
-        <v>13.722426</v>
+      <c r="L184" s="7" t="n">
+        <v>-89.209983</v>
+      </c>
+      <c r="M184" s="3" t="n">
+        <v>13.7149</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="12" t="n">
+      <c r="A185" s="3" t="n">
         <v>187</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C185" s="12"/>
+      <c r="B185" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C185" s="3"/>
       <c r="D185" s="3" t="s">
         <v>15</v>
       </c>
@@ -9478,33 +9460,33 @@
       <c r="G185" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H185" s="11" t="s">
+      <c r="H185" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="I185" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J185" s="12" t="s">
+      <c r="I185" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J185" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K185" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="L185" s="14" t="n">
-        <v>-89.209983</v>
-      </c>
-      <c r="M185" s="12" t="n">
-        <v>13.7149</v>
+      <c r="L185" s="7" t="n">
+        <v>-89.204366</v>
+      </c>
+      <c r="M185" s="3" t="n">
+        <v>13.708281</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="12" t="n">
+      <c r="A186" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="B186" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C186" s="12"/>
+      <c r="B186" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C186" s="3"/>
       <c r="D186" s="3" t="s">
         <v>15</v>
       </c>
@@ -9517,33 +9499,33 @@
       <c r="G186" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H186" s="11" t="s">
+      <c r="H186" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="I186" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J186" s="12" t="s">
+      <c r="I186" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J186" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K186" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="L186" s="14" t="n">
-        <v>-89.204366</v>
-      </c>
-      <c r="M186" s="12" t="n">
-        <v>13.708281</v>
+      <c r="L186" s="7" t="n">
+        <v>-89.206</v>
+      </c>
+      <c r="M186" s="3" t="n">
+        <v>13.706295</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="12" t="n">
+      <c r="A187" s="3" t="n">
         <v>189</v>
       </c>
-      <c r="B187" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C187" s="12"/>
+      <c r="B187" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C187" s="3"/>
       <c r="D187" s="3" t="s">
         <v>15</v>
       </c>
@@ -9556,33 +9538,33 @@
       <c r="G187" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H187" s="11" t="s">
+      <c r="H187" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="I187" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J187" s="12" t="s">
+      <c r="I187" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K187" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="L187" s="14" t="n">
-        <v>-89.206</v>
-      </c>
-      <c r="M187" s="12" t="n">
-        <v>13.706295</v>
+      <c r="L187" s="7" t="n">
+        <v>-89.204842</v>
+      </c>
+      <c r="M187" s="3" t="n">
+        <v>13.709922</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="12" t="n">
+      <c r="A188" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="B188" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C188" s="12"/>
+      <c r="B188" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C188" s="3"/>
       <c r="D188" s="3" t="s">
         <v>15</v>
       </c>
@@ -9595,33 +9577,33 @@
       <c r="G188" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H188" s="11" t="s">
+      <c r="H188" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="I188" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" s="12" t="s">
+      <c r="I188" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K188" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="L188" s="14" t="n">
-        <v>-89.204842</v>
-      </c>
-      <c r="M188" s="12" t="n">
-        <v>13.709922</v>
+      <c r="L188" s="7" t="n">
+        <v>-89.227099</v>
+      </c>
+      <c r="M188" s="3" t="n">
+        <v>13.722103</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="12" t="n">
+      <c r="A189" s="3" t="n">
         <v>191</v>
       </c>
-      <c r="B189" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C189" s="12"/>
+      <c r="B189" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C189" s="3"/>
       <c r="D189" s="3" t="s">
         <v>15</v>
       </c>
@@ -9634,33 +9616,33 @@
       <c r="G189" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H189" s="11" t="s">
+      <c r="H189" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="I189" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J189" s="12" t="s">
-        <v>391</v>
+      <c r="I189" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="K189" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="L189" s="14" t="n">
-        <v>-89.227099</v>
-      </c>
-      <c r="M189" s="12" t="n">
-        <v>13.722103</v>
+      <c r="L189" s="7" t="n">
+        <v>-89.212439</v>
+      </c>
+      <c r="M189" s="3" t="n">
+        <v>13.724179</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="12" t="n">
+      <c r="A190" s="3" t="n">
         <v>192</v>
       </c>
-      <c r="B190" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C190" s="12"/>
+      <c r="B190" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C190" s="3"/>
       <c r="D190" s="3" t="s">
         <v>15</v>
       </c>
@@ -9673,33 +9655,33 @@
       <c r="G190" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H190" s="11" t="s">
+      <c r="H190" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="I190" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" s="12" t="s">
-        <v>132</v>
+      <c r="I190" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="K190" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="L190" s="14" t="n">
-        <v>-89.212439</v>
-      </c>
-      <c r="M190" s="12" t="n">
-        <v>13.724179</v>
+      <c r="L190" s="7" t="n">
+        <v>-89.225903</v>
+      </c>
+      <c r="M190" s="3" t="n">
+        <v>13.718272</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="12" t="n">
+      <c r="A191" s="3" t="n">
         <v>193</v>
       </c>
-      <c r="B191" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C191" s="12"/>
+      <c r="B191" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C191" s="3"/>
       <c r="D191" s="3" t="s">
         <v>15</v>
       </c>
@@ -9712,61 +9694,22 @@
       <c r="G191" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H191" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="I191" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J191" s="12" t="s">
+      <c r="H191" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I191" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J191" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="L191" s="14" t="n">
-        <v>-89.225903</v>
-      </c>
-      <c r="M191" s="12" t="n">
-        <v>13.718272</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="12" t="n">
-        <v>194</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C192" s="12"/>
-      <c r="D192" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H192" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I192" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="J192" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K192" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="L192" s="14" t="n">
+      <c r="L191" s="7" t="n">
         <v>-89.216085</v>
       </c>
-      <c r="M192" s="12" t="n">
+      <c r="M191" s="3" t="n">
         <v>13.711764</v>
       </c>
     </row>

--- a/puntos_ce.xlsx
+++ b/puntos_ce.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrique\Desktop\Proyectos\Proyecto_GIS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DEF2E9-2B88-45EA-96F0-55568CE25BDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="puntos_ce" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2118,8 +2112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2213,7 +2207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2265,7 +2259,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2459,32 +2453,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H115" sqref="A115:XFD115"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I228" sqref="I228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="129.7109375" customWidth="1"/>
+    <col min="3" max="7" width="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="129.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="10.7109375" customWidth="1"/>
     <col min="17" max="1027" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2546,7 +2540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2571,6 +2565,30 @@
       <c r="H2" t="s">
         <v>23</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
       <c r="Q2">
         <v>27</v>
       </c>
@@ -2584,7 +2602,7 @@
         <v>13.702189000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2609,6 +2627,30 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
       <c r="Q3">
         <v>1</v>
       </c>
@@ -2622,7 +2664,7 @@
         <v>13.724618</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2647,6 +2689,30 @@
       <c r="H4" t="s">
         <v>30</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
       <c r="Q4">
         <v>2</v>
       </c>
@@ -2660,7 +2726,7 @@
         <v>13.715598</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>6</v>
       </c>
@@ -2685,6 +2751,30 @@
       <c r="H5" t="s">
         <v>33</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
       <c r="Q5">
         <v>2</v>
       </c>
@@ -2698,7 +2788,7 @@
         <v>13.708848</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2723,6 +2813,30 @@
       <c r="H6" t="s">
         <v>36</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
       <c r="Q6">
         <v>35</v>
       </c>
@@ -2736,7 +2850,7 @@
         <v>13.714492</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2761,6 +2875,30 @@
       <c r="H7" t="s">
         <v>41</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
       <c r="Q7">
         <v>27</v>
       </c>
@@ -2774,7 +2912,7 @@
         <v>13.715273</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>9</v>
       </c>
@@ -2799,6 +2937,30 @@
       <c r="H8" t="s">
         <v>44</v>
       </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
       <c r="Q8">
         <v>0</v>
       </c>
@@ -2812,7 +2974,7 @@
         <v>13.715441</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>10</v>
       </c>
@@ -2837,6 +2999,30 @@
       <c r="H9" t="s">
         <v>47</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
       <c r="Q9">
         <v>0</v>
       </c>
@@ -2850,7 +3036,7 @@
         <v>13.715210000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2875,6 +3061,30 @@
       <c r="H10" t="s">
         <v>51</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
       <c r="Q10">
         <v>0</v>
       </c>
@@ -2888,7 +3098,7 @@
         <v>13.696554000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2913,6 +3123,30 @@
       <c r="H11" t="s">
         <v>54</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
       <c r="Q11">
         <v>12</v>
       </c>
@@ -2926,7 +3160,7 @@
         <v>13.701499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2951,6 +3185,30 @@
       <c r="H12" t="s">
         <v>57</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
       <c r="Q12">
         <v>0</v>
       </c>
@@ -2964,7 +3222,7 @@
         <v>13.693742</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2989,6 +3247,30 @@
       <c r="H13" t="s">
         <v>61</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
       <c r="Q13">
         <v>81</v>
       </c>
@@ -3002,7 +3284,7 @@
         <v>13.686071</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>15</v>
       </c>
@@ -3027,6 +3309,30 @@
       <c r="H14" t="s">
         <v>65</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
       <c r="Q14">
         <v>21</v>
       </c>
@@ -3040,7 +3346,7 @@
         <v>13.682698</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>16</v>
       </c>
@@ -3065,6 +3371,30 @@
       <c r="H15" t="s">
         <v>67</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
       <c r="Q15">
         <v>45</v>
       </c>
@@ -3078,7 +3408,7 @@
         <v>13.717371</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>18</v>
       </c>
@@ -3103,6 +3433,30 @@
       <c r="H16" t="s">
         <v>69</v>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
       <c r="Q16">
         <v>0</v>
       </c>
@@ -3116,7 +3470,7 @@
         <v>13.699014</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>19</v>
       </c>
@@ -3141,6 +3495,30 @@
       <c r="H17" t="s">
         <v>71</v>
       </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
       <c r="Q17">
         <v>0</v>
       </c>
@@ -3154,7 +3532,7 @@
         <v>13.698287000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3179,6 +3557,30 @@
       <c r="H18" t="s">
         <v>73</v>
       </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
       <c r="Q18">
         <v>0</v>
       </c>
@@ -3192,7 +3594,7 @@
         <v>13.686491999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3217,6 +3619,30 @@
       <c r="H19" t="s">
         <v>75</v>
       </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
       <c r="Q19">
         <v>0</v>
       </c>
@@ -3230,7 +3656,7 @@
         <v>13.709517</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3255,6 +3681,30 @@
       <c r="H20" t="s">
         <v>79</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
       <c r="Q20">
         <v>0</v>
       </c>
@@ -3268,7 +3718,7 @@
         <v>13.697338</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3293,6 +3743,30 @@
       <c r="H21" t="s">
         <v>83</v>
       </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
       <c r="Q21">
         <v>0</v>
       </c>
@@ -3306,7 +3780,7 @@
         <v>13.700732</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3331,6 +3805,30 @@
       <c r="H22" t="s">
         <v>86</v>
       </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
       <c r="Q22">
         <v>176</v>
       </c>
@@ -3344,7 +3842,7 @@
         <v>13.712365999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3369,6 +3867,30 @@
       <c r="H23" t="s">
         <v>88</v>
       </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
       <c r="Q23">
         <v>6</v>
       </c>
@@ -3382,7 +3904,7 @@
         <v>13.688143</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3407,6 +3929,30 @@
       <c r="H24" t="s">
         <v>91</v>
       </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
       <c r="Q24">
         <v>6</v>
       </c>
@@ -3420,7 +3966,7 @@
         <v>13.707614</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3445,6 +3991,30 @@
       <c r="H25" t="s">
         <v>93</v>
       </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
       <c r="Q25">
         <v>0</v>
       </c>
@@ -3458,7 +4028,7 @@
         <v>13.713229</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3483,6 +4053,30 @@
       <c r="H26" t="s">
         <v>95</v>
       </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
       <c r="Q26">
         <v>0</v>
       </c>
@@ -3496,7 +4090,7 @@
         <v>13.709472</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3521,6 +4115,30 @@
       <c r="H27" t="s">
         <v>100</v>
       </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
       <c r="Q27">
         <v>0</v>
       </c>
@@ -3534,7 +4152,7 @@
         <v>13.714157999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3559,6 +4177,30 @@
       <c r="H28" t="s">
         <v>102</v>
       </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
       <c r="Q28">
         <v>13</v>
       </c>
@@ -3572,7 +4214,7 @@
         <v>13.719409000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3597,6 +4239,30 @@
       <c r="H29" t="s">
         <v>104</v>
       </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
       <c r="Q29">
         <v>17</v>
       </c>
@@ -3610,7 +4276,7 @@
         <v>13.690405999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3635,6 +4301,30 @@
       <c r="H30" t="s">
         <v>106</v>
       </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
       <c r="Q30">
         <v>7</v>
       </c>
@@ -3648,7 +4338,7 @@
         <v>13.668431</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3673,6 +4363,30 @@
       <c r="H31" t="s">
         <v>109</v>
       </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
       <c r="Q31">
         <v>28</v>
       </c>
@@ -3686,7 +4400,7 @@
         <v>13.712865000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3711,6 +4425,30 @@
       <c r="H32" t="s">
         <v>113</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
       <c r="Q32">
         <v>0</v>
       </c>
@@ -3724,7 +4462,7 @@
         <v>13.717107</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3749,6 +4487,30 @@
       <c r="H33" t="s">
         <v>116</v>
       </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
       <c r="Q33">
         <v>0</v>
       </c>
@@ -3762,7 +4524,7 @@
         <v>13.673864</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3787,6 +4549,30 @@
       <c r="H34" t="s">
         <v>120</v>
       </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
       <c r="Q34">
         <v>0</v>
       </c>
@@ -3800,7 +4586,7 @@
         <v>13.685134</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3825,6 +4611,30 @@
       <c r="H35" t="s">
         <v>124</v>
       </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
       <c r="Q35">
         <v>0</v>
       </c>
@@ -3838,7 +4648,7 @@
         <v>13.709977</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3863,6 +4673,30 @@
       <c r="H36" t="s">
         <v>127</v>
       </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
       <c r="Q36">
         <v>0</v>
       </c>
@@ -3876,7 +4710,7 @@
         <v>13.677459000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3901,6 +4735,30 @@
       <c r="H37" t="s">
         <v>130</v>
       </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
       <c r="Q37">
         <v>10</v>
       </c>
@@ -3914,7 +4772,7 @@
         <v>13.714219</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3939,6 +4797,30 @@
       <c r="H38" t="s">
         <v>132</v>
       </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
       <c r="Q38">
         <v>11</v>
       </c>
@@ -3952,7 +4834,7 @@
         <v>13.689405000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3977,6 +4859,30 @@
       <c r="H39" t="s">
         <v>135</v>
       </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
       <c r="Q39">
         <v>0</v>
       </c>
@@ -3990,7 +4896,7 @@
         <v>13.684454000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4015,6 +4921,30 @@
       <c r="H40" t="s">
         <v>138</v>
       </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
       <c r="Q40">
         <v>19</v>
       </c>
@@ -4028,7 +4958,7 @@
         <v>13.695554</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4053,6 +4983,30 @@
       <c r="H41" t="s">
         <v>140</v>
       </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
       <c r="Q41">
         <v>0</v>
       </c>
@@ -4066,7 +5020,7 @@
         <v>13.66804</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4091,6 +5045,30 @@
       <c r="H42" t="s">
         <v>142</v>
       </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
       <c r="Q42">
         <v>7</v>
       </c>
@@ -4104,7 +5082,7 @@
         <v>13.696913</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4129,6 +5107,30 @@
       <c r="H43" t="s">
         <v>145</v>
       </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
       <c r="Q43">
         <v>0</v>
       </c>
@@ -4142,7 +5144,7 @@
         <v>13.689398000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4167,6 +5169,30 @@
       <c r="H44" t="s">
         <v>148</v>
       </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
       <c r="Q44">
         <v>44</v>
       </c>
@@ -4180,7 +5206,7 @@
         <v>13.709327</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4205,6 +5231,30 @@
       <c r="H45" t="s">
         <v>150</v>
       </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
       <c r="Q45">
         <v>8</v>
       </c>
@@ -4218,7 +5268,7 @@
         <v>13.692550000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4243,6 +5293,30 @@
       <c r="H46" t="s">
         <v>152</v>
       </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
       <c r="Q46">
         <v>9</v>
       </c>
@@ -4256,7 +5330,7 @@
         <v>13.68173</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4281,6 +5355,30 @@
       <c r="H47" t="s">
         <v>155</v>
       </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
       <c r="Q47">
         <v>72</v>
       </c>
@@ -4294,7 +5392,7 @@
         <v>13.685506999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4319,6 +5417,30 @@
       <c r="H48" t="s">
         <v>158</v>
       </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
       <c r="Q48">
         <v>19</v>
       </c>
@@ -4332,7 +5454,7 @@
         <v>13.696709</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4357,6 +5479,30 @@
       <c r="H49" t="s">
         <v>160</v>
       </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
       <c r="Q49">
         <v>76</v>
       </c>
@@ -4370,7 +5516,7 @@
         <v>13.67581</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4395,6 +5541,30 @@
       <c r="H50" t="s">
         <v>162</v>
       </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
       <c r="Q50">
         <v>0</v>
       </c>
@@ -4408,7 +5578,7 @@
         <v>13.683517</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4433,34 +5603,28 @@
       <c r="H51" t="s">
         <v>165</v>
       </c>
-      <c r="I51" s="2">
-        <f>0</f>
+      <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="L51">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="O51">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="P51">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="Q51">
@@ -4476,7 +5640,7 @@
         <v>13.695944000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4546,7 +5710,7 @@
         <v>13.693631</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4616,7 +5780,7 @@
         <v>13.695883</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4686,7 +5850,7 @@
         <v>13.697008</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4756,7 +5920,7 @@
         <v>13.711978</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4826,7 +5990,7 @@
         <v>13.698100999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4896,7 +6060,7 @@
         <v>13.70298</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4966,7 +6130,7 @@
         <v>13.703569</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>59</v>
       </c>
@@ -5034,7 +6198,7 @@
         <v>13.714371</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>60</v>
       </c>
@@ -5104,7 +6268,7 @@
         <v>13.706894999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>61</v>
       </c>
@@ -5174,7 +6338,7 @@
         <v>13.681168</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>62</v>
       </c>
@@ -5244,7 +6408,7 @@
         <v>13.683494</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>63</v>
       </c>
@@ -5314,7 +6478,7 @@
         <v>13.69819</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>64</v>
       </c>
@@ -5383,7 +6547,7 @@
         <v>13.675254000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>65</v>
       </c>
@@ -5453,7 +6617,7 @@
         <v>13.690181000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>66</v>
       </c>
@@ -5523,7 +6687,7 @@
         <v>13.714304</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>67</v>
       </c>
@@ -5593,7 +6757,7 @@
         <v>13.722702</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68">
         <v>68</v>
       </c>
@@ -5663,7 +6827,7 @@
         <v>13.715164</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69">
         <v>69</v>
       </c>
@@ -5733,7 +6897,7 @@
         <v>13.70857</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70">
         <v>70</v>
       </c>
@@ -5803,7 +6967,7 @@
         <v>13.706678</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71">
         <v>71</v>
       </c>
@@ -5873,7 +7037,7 @@
         <v>13.7102</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72">
         <v>72</v>
       </c>
@@ -5943,7 +7107,7 @@
         <v>13.722339</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73">
         <v>73</v>
       </c>
@@ -6013,7 +7177,7 @@
         <v>13.724226</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74">
         <v>75</v>
       </c>
@@ -6077,7 +7241,7 @@
         <v>13.718622999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75">
         <v>76</v>
       </c>
@@ -6147,7 +7311,7 @@
         <v>13.71203</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76">
         <v>77</v>
       </c>
@@ -6217,7 +7381,7 @@
         <v>13.717286</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77">
         <v>78</v>
       </c>
@@ -6287,7 +7451,7 @@
         <v>13.709228</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78">
         <v>79</v>
       </c>
@@ -6357,7 +7521,7 @@
         <v>13.688234</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79">
         <v>81</v>
       </c>
@@ -6427,7 +7591,7 @@
         <v>13.700654999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80">
         <v>82</v>
       </c>
@@ -6497,7 +7661,7 @@
         <v>13.710501000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81">
         <v>83</v>
       </c>
@@ -6560,7 +7724,7 @@
         <v>13.716232</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82">
         <v>84</v>
       </c>
@@ -6629,7 +7793,7 @@
         <v>13.706199</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83">
         <v>85</v>
       </c>
@@ -6699,7 +7863,7 @@
         <v>13.703569999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84">
         <v>86</v>
       </c>
@@ -6769,7 +7933,7 @@
         <v>13.709807</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85">
         <v>87</v>
       </c>
@@ -6839,7 +8003,7 @@
         <v>13.702524</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86">
         <v>88</v>
       </c>
@@ -6909,7 +8073,7 @@
         <v>13.686564000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87">
         <v>89</v>
       </c>
@@ -6979,7 +8143,7 @@
         <v>13.716786000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88">
         <v>90</v>
       </c>
@@ -7049,7 +8213,7 @@
         <v>13.700315</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89">
         <v>91</v>
       </c>
@@ -7119,7 +8283,7 @@
         <v>13.695952999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90">
         <v>92</v>
       </c>
@@ -7189,7 +8353,7 @@
         <v>13.709453999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91">
         <v>93</v>
       </c>
@@ -7259,7 +8423,7 @@
         <v>13.716532000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7329,7 +8493,7 @@
         <v>13.706015000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7398,7 +8562,7 @@
         <v>13.684417</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94">
         <v>96</v>
       </c>
@@ -7468,7 +8632,7 @@
         <v>13.701167999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95">
         <v>97</v>
       </c>
@@ -7538,7 +8702,7 @@
         <v>13.675409</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20">
       <c r="A96">
         <v>98</v>
       </c>
@@ -7608,7 +8772,7 @@
         <v>13.685333999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="A97">
         <v>99</v>
       </c>
@@ -7678,7 +8842,7 @@
         <v>13.691805</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98">
         <v>100</v>
       </c>
@@ -7748,7 +8912,7 @@
         <v>13.712503999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99">
         <v>101</v>
       </c>
@@ -7817,7 +8981,7 @@
         <v>13.708899000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100">
         <v>102</v>
       </c>
@@ -7887,7 +9051,7 @@
         <v>13.692192</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101">
         <v>103</v>
       </c>
@@ -7956,7 +9120,7 @@
         <v>13.6875</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102">
         <v>104</v>
       </c>
@@ -8026,7 +9190,7 @@
         <v>13.704886999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103">
         <v>105</v>
       </c>
@@ -8096,7 +9260,7 @@
         <v>13.705579</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20">
       <c r="A104">
         <v>106</v>
       </c>
@@ -8166,7 +9330,7 @@
         <v>13.707492</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105">
         <v>107</v>
       </c>
@@ -8236,7 +9400,7 @@
         <v>13.706576999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106">
         <v>108</v>
       </c>
@@ -8306,7 +9470,7 @@
         <v>13.679601</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107">
         <v>109</v>
       </c>
@@ -8376,7 +9540,7 @@
         <v>13.695596</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108">
         <v>110</v>
       </c>
@@ -8446,7 +9610,7 @@
         <v>13.712513</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" ht="11.25" customHeight="1">
       <c r="A109">
         <v>111</v>
       </c>
@@ -8516,7 +9680,7 @@
         <v>13.716597999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110">
         <v>112</v>
       </c>
@@ -8586,7 +9750,7 @@
         <v>13.68042</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111">
         <v>113</v>
       </c>
@@ -8656,7 +9820,7 @@
         <v>13.683009</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20">
       <c r="A112">
         <v>114</v>
       </c>
@@ -8726,7 +9890,7 @@
         <v>13.690447000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113">
         <v>115</v>
       </c>
@@ -8796,7 +9960,7 @@
         <v>13.693725000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114">
         <v>116</v>
       </c>
@@ -8866,7 +10030,7 @@
         <v>13.667845</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115">
         <v>117</v>
       </c>
@@ -8935,7 +10099,7 @@
         <v>13.693864</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116">
         <v>118</v>
       </c>
@@ -8991,7 +10155,7 @@
         <v>13.713098</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117">
         <v>119</v>
       </c>
@@ -9047,7 +10211,7 @@
         <v>13.713381999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118">
         <v>120</v>
       </c>
@@ -9103,7 +10267,7 @@
         <v>13.708119999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119">
         <v>121</v>
       </c>
@@ -9159,7 +10323,7 @@
         <v>13.699408999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20">
       <c r="A120">
         <v>122</v>
       </c>
@@ -9215,7 +10379,7 @@
         <v>13.707917999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121">
         <v>123</v>
       </c>
@@ -9271,7 +10435,7 @@
         <v>13.693706000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122">
         <v>124</v>
       </c>
@@ -9327,7 +10491,7 @@
         <v>13.72273</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123">
         <v>125</v>
       </c>
@@ -9383,7 +10547,7 @@
         <v>13.690578</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124">
         <v>126</v>
       </c>
@@ -9439,7 +10603,7 @@
         <v>13.689075000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125">
         <v>127</v>
       </c>
@@ -9495,7 +10659,7 @@
         <v>13.712820000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126">
         <v>128</v>
       </c>
@@ -9551,7 +10715,7 @@
         <v>13.694148999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127">
         <v>129</v>
       </c>
@@ -9607,7 +10771,7 @@
         <v>13.687554</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20">
       <c r="A128">
         <v>130</v>
       </c>
@@ -9663,7 +10827,7 @@
         <v>13.701682999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129">
         <v>131</v>
       </c>
@@ -9719,7 +10883,7 @@
         <v>13.713051</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130">
         <v>132</v>
       </c>
@@ -9775,7 +10939,7 @@
         <v>13.70036</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131">
         <v>133</v>
       </c>
@@ -9831,7 +10995,7 @@
         <v>13.71547</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132">
         <v>134</v>
       </c>
@@ -9887,7 +11051,7 @@
         <v>13.686310000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133">
         <v>135</v>
       </c>
@@ -9943,7 +11107,7 @@
         <v>13.695622</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134">
         <v>136</v>
       </c>
@@ -9999,7 +11163,7 @@
         <v>13.691182</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135">
         <v>137</v>
       </c>
@@ -10055,7 +11219,7 @@
         <v>13.681215</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136">
         <v>138</v>
       </c>
@@ -10111,7 +11275,7 @@
         <v>13.696282999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137">
         <v>139</v>
       </c>
@@ -10167,7 +11331,7 @@
         <v>13.70499</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138">
         <v>140</v>
       </c>
@@ -10223,7 +11387,7 @@
         <v>13.692764</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139">
         <v>141</v>
       </c>
@@ -10279,7 +11443,7 @@
         <v>13.682848</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140">
         <v>142</v>
       </c>
@@ -10335,7 +11499,7 @@
         <v>13.705558999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141">
         <v>143</v>
       </c>
@@ -10391,7 +11555,7 @@
         <v>13.705584</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142">
         <v>144</v>
       </c>
@@ -10447,7 +11611,7 @@
         <v>13.718242</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143">
         <v>145</v>
       </c>
@@ -10503,7 +11667,7 @@
         <v>13.702109</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144">
         <v>146</v>
       </c>
@@ -10559,7 +11723,7 @@
         <v>13.685798999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145">
         <v>147</v>
       </c>
@@ -10615,7 +11779,7 @@
         <v>13.681813999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20">
       <c r="A146">
         <v>148</v>
       </c>
@@ -10671,7 +11835,7 @@
         <v>13.688991</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20">
       <c r="A147">
         <v>149</v>
       </c>
@@ -10727,7 +11891,7 @@
         <v>13.714926999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20">
       <c r="A148">
         <v>150</v>
       </c>
@@ -10783,7 +11947,7 @@
         <v>13.695563</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20">
       <c r="A149">
         <v>151</v>
       </c>
@@ -10839,7 +12003,7 @@
         <v>13.702173999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20">
       <c r="A150">
         <v>152</v>
       </c>
@@ -10895,7 +12059,7 @@
         <v>13.701283</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20">
       <c r="A151">
         <v>153</v>
       </c>
@@ -10951,7 +12115,7 @@
         <v>13.716775999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20">
       <c r="A152">
         <v>154</v>
       </c>
@@ -11007,7 +12171,7 @@
         <v>13.713483</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20">
       <c r="A153">
         <v>155</v>
       </c>
@@ -11063,7 +12227,7 @@
         <v>13.688765</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20">
       <c r="A154">
         <v>156</v>
       </c>
@@ -11119,7 +12283,7 @@
         <v>13.714081</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20">
       <c r="A155">
         <v>157</v>
       </c>
@@ -11175,7 +12339,7 @@
         <v>13.690645999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156">
         <v>158</v>
       </c>
@@ -11231,7 +12395,7 @@
         <v>13.70524</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20">
       <c r="A157">
         <v>159</v>
       </c>
@@ -11287,7 +12451,7 @@
         <v>13.704889</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20">
       <c r="A158">
         <v>160</v>
       </c>
@@ -11343,7 +12507,7 @@
         <v>13.709291</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20">
       <c r="A159">
         <v>161</v>
       </c>
@@ -11399,7 +12563,7 @@
         <v>13.70214</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20">
       <c r="A160">
         <v>162</v>
       </c>
@@ -11455,7 +12619,7 @@
         <v>13.707933000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20">
       <c r="A161">
         <v>163</v>
       </c>
@@ -11511,7 +12675,7 @@
         <v>13.702451</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20">
       <c r="A162">
         <v>164</v>
       </c>
@@ -11567,7 +12731,7 @@
         <v>13.705245</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20">
       <c r="A163">
         <v>165</v>
       </c>
@@ -11623,7 +12787,7 @@
         <v>13.700803000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20">
       <c r="A164">
         <v>166</v>
       </c>
@@ -11679,7 +12843,7 @@
         <v>13.705298000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20">
       <c r="A165">
         <v>167</v>
       </c>
@@ -11735,7 +12899,7 @@
         <v>13.707132</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20">
       <c r="A166">
         <v>168</v>
       </c>
@@ -11791,7 +12955,7 @@
         <v>13.693469</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20">
       <c r="A167">
         <v>169</v>
       </c>
@@ -11847,7 +13011,7 @@
         <v>13.695543000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20">
       <c r="A168">
         <v>170</v>
       </c>
@@ -11903,7 +13067,7 @@
         <v>13.696263</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20">
       <c r="A169">
         <v>171</v>
       </c>
@@ -11959,7 +13123,7 @@
         <v>13.7117</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20">
       <c r="A170">
         <v>172</v>
       </c>
@@ -12015,7 +13179,7 @@
         <v>13.697799</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20">
       <c r="A171">
         <v>173</v>
       </c>
@@ -12071,7 +13235,7 @@
         <v>13.702619</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20">
       <c r="A172">
         <v>174</v>
       </c>
@@ -12127,7 +13291,7 @@
         <v>13.703282</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20">
       <c r="A173">
         <v>175</v>
       </c>
@@ -12183,7 +13347,7 @@
         <v>13.682029999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20">
       <c r="A174">
         <v>176</v>
       </c>
@@ -12239,7 +13403,7 @@
         <v>13.714146</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20">
       <c r="A175">
         <v>177</v>
       </c>
@@ -12295,7 +13459,7 @@
         <v>13.706586</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20">
       <c r="A176">
         <v>178</v>
       </c>
@@ -12351,7 +13515,7 @@
         <v>13.680828</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20">
       <c r="A177">
         <v>179</v>
       </c>
@@ -12407,7 +13571,7 @@
         <v>13.683268</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20">
       <c r="A178">
         <v>180</v>
       </c>
@@ -12463,7 +13627,7 @@
         <v>13.697851999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20">
       <c r="A179">
         <v>181</v>
       </c>
@@ -12519,7 +13683,7 @@
         <v>13.674987</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20">
       <c r="A180">
         <v>182</v>
       </c>
@@ -12575,7 +13739,7 @@
         <v>13.689968</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20">
       <c r="A181">
         <v>183</v>
       </c>
@@ -12631,7 +13795,7 @@
         <v>13.702182000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20">
       <c r="A182">
         <v>184</v>
       </c>
@@ -12687,7 +13851,7 @@
         <v>13.702856000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20">
       <c r="A183">
         <v>185</v>
       </c>
@@ -12743,7 +13907,7 @@
         <v>13.722426</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20">
       <c r="A184">
         <v>186</v>
       </c>
@@ -12799,7 +13963,7 @@
         <v>13.7149</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20">
       <c r="A185">
         <v>187</v>
       </c>
@@ -12855,7 +14019,7 @@
         <v>13.708280999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20">
       <c r="A186">
         <v>188</v>
       </c>
@@ -12911,7 +14075,7 @@
         <v>13.706295000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20">
       <c r="A187">
         <v>189</v>
       </c>
@@ -12967,7 +14131,7 @@
         <v>13.709922000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20">
       <c r="A188">
         <v>190</v>
       </c>
@@ -13023,7 +14187,7 @@
         <v>13.722103000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20">
       <c r="A189">
         <v>191</v>
       </c>
@@ -13079,7 +14243,7 @@
         <v>13.724178999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20">
       <c r="A190">
         <v>192</v>
       </c>
@@ -13135,7 +14299,7 @@
         <v>13.718272000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20">
       <c r="A191">
         <v>193</v>
       </c>
@@ -13191,7 +14355,7 @@
         <v>13.711764000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20">
       <c r="A192">
         <v>194</v>
       </c>
@@ -13216,6 +14380,30 @@
       <c r="H192" t="s">
         <v>551</v>
       </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
       <c r="Q192">
         <v>0</v>
       </c>
@@ -13229,7 +14417,7 @@
         <v>13.709047</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20">
       <c r="A193">
         <v>195</v>
       </c>
@@ -13254,6 +14442,30 @@
       <c r="H193" t="s">
         <v>554</v>
       </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
       <c r="Q193">
         <v>10</v>
       </c>
@@ -13267,7 +14479,7 @@
         <v>13.6965</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20">
       <c r="A194">
         <v>196</v>
       </c>
@@ -13292,6 +14504,30 @@
       <c r="H194" t="s">
         <v>557</v>
       </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
       <c r="Q194">
         <v>0</v>
       </c>
@@ -13305,7 +14541,7 @@
         <v>13.689292999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20">
       <c r="A195">
         <v>197</v>
       </c>
@@ -13330,6 +14566,30 @@
       <c r="H195" t="s">
         <v>560</v>
       </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
       <c r="Q195">
         <v>1</v>
       </c>
@@ -13343,7 +14603,7 @@
         <v>13.70919</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20">
       <c r="A196">
         <v>198</v>
       </c>
@@ -13368,6 +14628,30 @@
       <c r="H196" t="s">
         <v>563</v>
       </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
       <c r="Q196">
         <v>3</v>
       </c>
@@ -13381,7 +14665,7 @@
         <v>13.71242</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20">
       <c r="A197">
         <v>199</v>
       </c>
@@ -13406,6 +14690,30 @@
       <c r="H197" t="s">
         <v>566</v>
       </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
       <c r="Q197">
         <v>4</v>
       </c>
@@ -13419,7 +14727,7 @@
         <v>13.678775</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20">
       <c r="A198">
         <v>200</v>
       </c>
@@ -13444,6 +14752,30 @@
       <c r="H198" t="s">
         <v>569</v>
       </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
       <c r="Q198">
         <v>0</v>
       </c>
@@ -13457,7 +14789,7 @@
         <v>13.706481</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20">
       <c r="A199">
         <v>201</v>
       </c>
@@ -13482,6 +14814,30 @@
       <c r="H199" t="s">
         <v>572</v>
       </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
       <c r="Q199">
         <v>0</v>
       </c>
@@ -13495,7 +14851,7 @@
         <v>13.711066000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20">
       <c r="A200">
         <v>202</v>
       </c>
@@ -13520,6 +14876,30 @@
       <c r="H200" t="s">
         <v>575</v>
       </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
       <c r="Q200">
         <v>0</v>
       </c>
@@ -13533,7 +14913,7 @@
         <v>13.724677</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20">
       <c r="A201">
         <v>203</v>
       </c>
@@ -13558,6 +14938,30 @@
       <c r="H201" t="s">
         <v>578</v>
       </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
       <c r="Q201">
         <v>0</v>
       </c>
@@ -13571,7 +14975,7 @@
         <v>13.705864</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20">
       <c r="A202">
         <v>204</v>
       </c>
@@ -13596,6 +15000,30 @@
       <c r="H202" t="s">
         <v>581</v>
       </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
       <c r="Q202">
         <v>12</v>
       </c>
@@ -13609,7 +15037,7 @@
         <v>13.707279</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20">
       <c r="A203">
         <v>205</v>
       </c>
@@ -13634,6 +15062,30 @@
       <c r="H203" t="s">
         <v>584</v>
       </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
       <c r="Q203">
         <v>0</v>
       </c>
@@ -13647,7 +15099,7 @@
         <v>13.707625</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20">
       <c r="A204">
         <v>206</v>
       </c>
@@ -13672,6 +15124,30 @@
       <c r="H204" t="s">
         <v>587</v>
       </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
       <c r="Q204">
         <v>8</v>
       </c>
@@ -13685,7 +15161,7 @@
         <v>13.709097</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20">
       <c r="A205">
         <v>207</v>
       </c>
@@ -13710,6 +15186,30 @@
       <c r="H205" t="s">
         <v>590</v>
       </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
       <c r="Q205">
         <v>0</v>
       </c>
@@ -13723,7 +15223,7 @@
         <v>13.701646999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20">
       <c r="A206">
         <v>208</v>
       </c>
@@ -13748,6 +15248,30 @@
       <c r="H206" t="s">
         <v>593</v>
       </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
       <c r="Q206">
         <v>11</v>
       </c>
@@ -13761,7 +15285,7 @@
         <v>13.702202</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20">
       <c r="A207">
         <v>209</v>
       </c>
@@ -13786,6 +15310,30 @@
       <c r="H207" t="s">
         <v>596</v>
       </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
       <c r="Q207">
         <v>1</v>
       </c>
@@ -13799,7 +15347,7 @@
         <v>13.71227</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20">
       <c r="A208">
         <v>210</v>
       </c>
@@ -13824,6 +15372,30 @@
       <c r="H208" t="s">
         <v>599</v>
       </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
       <c r="Q208">
         <v>1</v>
       </c>
@@ -13837,7 +15409,7 @@
         <v>13.706987</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20">
       <c r="A209">
         <v>211</v>
       </c>
@@ -13862,6 +15434,30 @@
       <c r="H209" t="s">
         <v>602</v>
       </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
       <c r="Q209">
         <v>3</v>
       </c>
@@ -13875,7 +15471,7 @@
         <v>13.712535000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20">
       <c r="A210">
         <v>212</v>
       </c>
@@ -13900,6 +15496,30 @@
       <c r="H210" t="s">
         <v>605</v>
       </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
       <c r="Q210">
         <v>3</v>
       </c>
@@ -13913,7 +15533,7 @@
         <v>13.685416</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20">
       <c r="A211">
         <v>213</v>
       </c>
@@ -13938,6 +15558,30 @@
       <c r="H211" t="s">
         <v>608</v>
       </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
       <c r="Q211">
         <v>12</v>
       </c>
@@ -13951,7 +15595,7 @@
         <v>13.708334000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20">
       <c r="A212">
         <v>214</v>
       </c>
@@ -13976,6 +15620,30 @@
       <c r="H212" t="s">
         <v>611</v>
       </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
       <c r="Q212">
         <v>6</v>
       </c>
@@ -13989,7 +15657,7 @@
         <v>13.703436</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20">
       <c r="A213">
         <v>215</v>
       </c>
@@ -14014,6 +15682,30 @@
       <c r="H213" t="s">
         <v>614</v>
       </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
       <c r="Q213">
         <v>2</v>
       </c>
@@ -14027,7 +15719,7 @@
         <v>13.707208</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20">
       <c r="A214">
         <v>216</v>
       </c>
@@ -14052,6 +15744,30 @@
       <c r="H214" t="s">
         <v>617</v>
       </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>1</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
       <c r="Q214">
         <v>4</v>
       </c>
@@ -14065,7 +15781,7 @@
         <v>13.702450000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20">
       <c r="A215">
         <v>217</v>
       </c>
@@ -14090,6 +15806,30 @@
       <c r="H215" t="s">
         <v>620</v>
       </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
       <c r="Q215">
         <v>0</v>
       </c>
@@ -14103,7 +15843,7 @@
         <v>13.686311999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20">
       <c r="A216">
         <v>218</v>
       </c>
@@ -14128,6 +15868,30 @@
       <c r="H216" t="s">
         <v>623</v>
       </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
       <c r="Q216">
         <v>1</v>
       </c>
@@ -14141,7 +15905,7 @@
         <v>13.722999</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20">
       <c r="A217">
         <v>219</v>
       </c>
@@ -14166,6 +15930,30 @@
       <c r="H217" t="s">
         <v>626</v>
       </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
       <c r="Q217">
         <v>6</v>
       </c>
@@ -14179,7 +15967,7 @@
         <v>13.708879</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20">
       <c r="A218">
         <v>220</v>
       </c>
@@ -14204,6 +15992,30 @@
       <c r="H218" t="s">
         <v>629</v>
       </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
       <c r="Q218">
         <v>2</v>
       </c>
@@ -14217,7 +16029,7 @@
         <v>13.718145</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20">
       <c r="A219">
         <v>221</v>
       </c>
@@ -14242,6 +16054,30 @@
       <c r="H219" t="s">
         <v>632</v>
       </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
       <c r="Q219">
         <v>0</v>
       </c>
@@ -14255,7 +16091,7 @@
         <v>13.718259</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20">
       <c r="A220">
         <v>222</v>
       </c>
@@ -14280,6 +16116,30 @@
       <c r="H220" t="s">
         <v>635</v>
       </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
       <c r="Q220">
         <v>0</v>
       </c>
@@ -14293,7 +16153,7 @@
         <v>13.69722</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20">
       <c r="A221">
         <v>223</v>
       </c>
@@ -14318,6 +16178,30 @@
       <c r="H221" t="s">
         <v>638</v>
       </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
       <c r="Q221">
         <v>0</v>
       </c>
@@ -14331,7 +16215,7 @@
         <v>13.703986</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20">
       <c r="A222">
         <v>224</v>
       </c>
@@ -14356,6 +16240,30 @@
       <c r="H222" t="s">
         <v>641</v>
       </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
       <c r="Q222">
         <v>2</v>
       </c>
@@ -14369,7 +16277,7 @@
         <v>13.706302000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20">
       <c r="A223">
         <v>225</v>
       </c>
@@ -14394,6 +16302,30 @@
       <c r="H223" t="s">
         <v>646</v>
       </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>1</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
       <c r="Q223">
         <v>3</v>
       </c>
@@ -14407,7 +16339,7 @@
         <v>13.732999</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20">
       <c r="A224">
         <v>226</v>
       </c>
@@ -14432,6 +16364,30 @@
       <c r="H224" t="s">
         <v>648</v>
       </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
       <c r="Q224">
         <v>10</v>
       </c>
@@ -14445,7 +16401,7 @@
         <v>13.684027</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20">
       <c r="A225">
         <v>227</v>
       </c>
@@ -14470,6 +16426,30 @@
       <c r="H225" t="s">
         <v>651</v>
       </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
       <c r="Q225">
         <v>48</v>
       </c>
@@ -14483,7 +16463,7 @@
         <v>13.694799</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20">
       <c r="A226">
         <v>228</v>
       </c>
@@ -14508,6 +16488,30 @@
       <c r="H226" t="s">
         <v>654</v>
       </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
       <c r="Q226">
         <v>2</v>
       </c>
@@ -14521,7 +16525,7 @@
         <v>13.682399</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20">
       <c r="A227">
         <v>229</v>
       </c>
@@ -14546,6 +16550,30 @@
       <c r="H227" t="s">
         <v>656</v>
       </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
       <c r="Q227">
         <v>29</v>
       </c>
@@ -14559,7 +16587,7 @@
         <v>13.686828999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20">
       <c r="A228">
         <v>230</v>
       </c>
@@ -14584,6 +16612,30 @@
       <c r="H228" t="s">
         <v>659</v>
       </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
       <c r="Q228">
         <v>8</v>
       </c>
@@ -14597,7 +16649,7 @@
         <v>13.690548</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20">
       <c r="A229">
         <v>231</v>
       </c>
@@ -14622,6 +16674,30 @@
       <c r="H229" t="s">
         <v>662</v>
       </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
       <c r="Q229">
         <v>6</v>
       </c>
@@ -14635,7 +16711,7 @@
         <v>13.71482</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20">
       <c r="A230">
         <v>232</v>
       </c>
@@ -14660,6 +16736,30 @@
       <c r="H230" t="s">
         <v>665</v>
       </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
       <c r="Q230">
         <v>0</v>
       </c>
@@ -14673,7 +16773,7 @@
         <v>13.687469999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20">
       <c r="A231">
         <v>233</v>
       </c>
@@ -14698,6 +16798,30 @@
       <c r="H231" t="s">
         <v>667</v>
       </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
       <c r="Q231">
         <v>4</v>
       </c>
@@ -14711,7 +16835,7 @@
         <v>13.697727</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20">
       <c r="A232">
         <v>234</v>
       </c>
@@ -14736,6 +16860,30 @@
       <c r="H232" t="s">
         <v>330</v>
       </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
       <c r="Q232">
         <v>4</v>
       </c>
@@ -14749,7 +16897,7 @@
         <v>13.682100999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20">
       <c r="A233">
         <v>235</v>
       </c>
@@ -14774,6 +16922,30 @@
       <c r="H233" t="s">
         <v>670</v>
       </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
       <c r="Q233">
         <v>0</v>
       </c>
@@ -14787,7 +16959,7 @@
         <v>13.684029000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20">
       <c r="A234">
         <v>236</v>
       </c>
@@ -14812,6 +16984,30 @@
       <c r="H234" t="s">
         <v>673</v>
       </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
       <c r="Q234">
         <v>7</v>
       </c>
@@ -14825,7 +17021,7 @@
         <v>13.670481000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20">
       <c r="A235">
         <v>237</v>
       </c>
@@ -14850,6 +17046,30 @@
       <c r="H235" t="s">
         <v>676</v>
       </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>1</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
       <c r="Q235">
         <v>6</v>
       </c>
@@ -14863,7 +17083,7 @@
         <v>13.70337</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20">
       <c r="A236">
         <v>238</v>
       </c>
@@ -14888,6 +17108,30 @@
       <c r="H236" t="s">
         <v>679</v>
       </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
       <c r="Q236">
         <v>2</v>
       </c>
@@ -14901,7 +17145,7 @@
         <v>13.723376</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20">
       <c r="A237">
         <v>239</v>
       </c>
@@ -14926,6 +17170,30 @@
       <c r="H237" t="s">
         <v>682</v>
       </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
       <c r="Q237">
         <v>7</v>
       </c>
@@ -14939,7 +17207,7 @@
         <v>13.688955</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20">
       <c r="A238">
         <v>240</v>
       </c>
@@ -14964,6 +17232,30 @@
       <c r="H238" t="s">
         <v>685</v>
       </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>1</v>
+      </c>
       <c r="Q238">
         <v>1</v>
       </c>
@@ -14977,7 +17269,7 @@
         <v>13.692055999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20">
       <c r="A239">
         <v>241</v>
       </c>
@@ -15002,6 +17294,30 @@
       <c r="H239" t="s">
         <v>688</v>
       </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
       <c r="Q239">
         <v>10</v>
       </c>
@@ -15015,7 +17331,7 @@
         <v>13.700362999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20">
       <c r="A240">
         <v>242</v>
       </c>
@@ -15039,6 +17355,30 @@
       </c>
       <c r="H240" t="s">
         <v>691</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
       </c>
       <c r="Q240">
         <v>2</v>

--- a/puntos_ce.xlsx
+++ b/puntos_ce.xlsx
@@ -2209,8 +2209,8 @@
   </sheetPr>
   <dimension ref="A1:T240"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O116" activeCellId="0" sqref="O116:O191"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I69" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T88" activeCellId="0" sqref="T88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7955,10 +7955,10 @@
         <v>281</v>
       </c>
       <c r="S88" s="0" t="n">
-        <v>-89.203406</v>
+        <v>-89.202442</v>
       </c>
       <c r="T88" s="0" t="n">
-        <v>13.700315</v>
+        <v>13.701425</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16847,10 +16847,10 @@
         <v>662</v>
       </c>
       <c r="S228" s="0" t="n">
-        <v>-89.200731</v>
+        <v>-89.20075</v>
       </c>
       <c r="T228" s="0" t="n">
-        <v>13.690548</v>
+        <v>13.69069</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17467,10 +17467,10 @@
         <v>688</v>
       </c>
       <c r="S238" s="0" t="n">
-        <v>-89.187345</v>
+        <v>-89.18716</v>
       </c>
       <c r="T238" s="0" t="n">
-        <v>13.692056</v>
+        <v>13.69169</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/puntos_ce.xlsx
+++ b/puntos_ce.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrique\Desktop\Proyectos\Proyecto_GIS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE937396-29D8-43EC-AE1D-FF5644B07026}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="puntos_ce" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">puntos_ce!$A$1:$T$240</definedName>
+  </definedNames>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="663">
   <si>
     <t>id</t>
   </si>
@@ -900,9 +897,6 @@
   </si>
   <si>
     <t>CENTRO ESCOLAR REPUBLICA DE NICARAGUA</t>
-  </si>
-  <si>
-    <t>PÃºblico</t>
   </si>
   <si>
     <t>FINAL AV. LOS LAGOS COLONIA CENTROAMERICA</t>
@@ -2027,8 +2021,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2144,7 +2138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2196,7 +2190,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2390,21 +2384,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD72"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="76" customWidth="1"/>
@@ -2419,7 +2413,7 @@
     <col min="19" max="1025" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +2475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2543,7 +2537,7 @@
         <v>13.702189000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2605,7 +2599,7 @@
         <v>13.724618</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2667,7 +2661,7 @@
         <v>13.715598</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>6</v>
       </c>
@@ -2729,7 +2723,7 @@
         <v>13.708848</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2791,7 +2785,7 @@
         <v>13.714492</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2853,7 +2847,7 @@
         <v>13.715273</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>9</v>
       </c>
@@ -2915,7 +2909,7 @@
         <v>13.715441</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>10</v>
       </c>
@@ -2977,7 +2971,7 @@
         <v>13.715210000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>11</v>
       </c>
@@ -3039,7 +3033,7 @@
         <v>13.696554000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>12</v>
       </c>
@@ -3101,7 +3095,7 @@
         <v>13.701499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>13</v>
       </c>
@@ -3163,7 +3157,7 @@
         <v>13.693742</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>14</v>
       </c>
@@ -3225,7 +3219,7 @@
         <v>13.686071</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>15</v>
       </c>
@@ -3287,7 +3281,7 @@
         <v>13.682698</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>16</v>
       </c>
@@ -3349,7 +3343,7 @@
         <v>13.717371</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>18</v>
       </c>
@@ -3411,7 +3405,7 @@
         <v>13.699014</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>19</v>
       </c>
@@ -3473,7 +3467,7 @@
         <v>13.698287000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3535,7 +3529,7 @@
         <v>13.686491999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3597,7 +3591,7 @@
         <v>13.709517</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3659,7 +3653,7 @@
         <v>13.697338</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3721,7 +3715,7 @@
         <v>13.700732</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3783,7 +3777,7 @@
         <v>13.712365999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3845,7 +3839,7 @@
         <v>13.688143</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3907,7 +3901,7 @@
         <v>13.707614</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3969,7 +3963,7 @@
         <v>13.713229</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4031,7 +4025,7 @@
         <v>13.709472</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4093,7 +4087,7 @@
         <v>13.714157999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4155,7 +4149,7 @@
         <v>13.719409000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4217,7 +4211,7 @@
         <v>13.690405999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4279,7 +4273,7 @@
         <v>13.668431</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4341,7 +4335,7 @@
         <v>13.712865000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4403,7 +4397,7 @@
         <v>13.717107</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4465,7 +4459,7 @@
         <v>13.673864</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4527,7 +4521,7 @@
         <v>13.685134</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4589,7 +4583,7 @@
         <v>13.709977</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4651,7 +4645,7 @@
         <v>13.677459000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4713,7 +4707,7 @@
         <v>13.714219</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4775,7 +4769,7 @@
         <v>13.689405000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4837,7 +4831,7 @@
         <v>13.684454000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4899,7 +4893,7 @@
         <v>13.695554</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4961,7 +4955,7 @@
         <v>13.66804</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5023,7 +5017,7 @@
         <v>13.696913</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5085,7 +5079,7 @@
         <v>13.689398000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5147,7 +5141,7 @@
         <v>13.709327</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5209,7 +5203,7 @@
         <v>13.692550000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5271,7 +5265,7 @@
         <v>13.68173</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5333,7 +5327,7 @@
         <v>13.685506999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5395,7 +5389,7 @@
         <v>13.696709</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5457,7 +5451,7 @@
         <v>13.67581</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5519,7 +5513,7 @@
         <v>13.683517</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5581,7 +5575,7 @@
         <v>13.695944000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5604,7 +5598,7 @@
         <v>24</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I52" s="1">
         <f>0</f>
@@ -5642,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S52">
         <v>-89.232955000000004</v>
@@ -5651,7 +5645,7 @@
         <v>13.693631</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5674,7 +5668,7 @@
         <v>24</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I53" s="1">
         <f>0</f>
@@ -5712,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="S53">
         <v>-89.239334999999997</v>
@@ -5721,7 +5715,7 @@
         <v>13.695883</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5744,7 +5738,7 @@
         <v>24</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I54" s="1">
         <f>0</f>
@@ -5782,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S54">
         <v>-89.230794000000003</v>
@@ -5791,7 +5785,7 @@
         <v>13.697008</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5814,45 +5808,45 @@
         <v>24</v>
       </c>
       <c r="H55" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I55" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="I55" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="S55">
         <v>-89.256361999999996</v>
@@ -5861,7 +5855,7 @@
         <v>13.711978</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5884,7 +5878,7 @@
         <v>24</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I56" s="1">
         <f>0</f>
@@ -5922,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S56">
         <v>-89.223832999999999</v>
@@ -5931,7 +5925,7 @@
         <v>13.698100999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5954,7 +5948,7 @@
         <v>24</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I57" s="1">
         <f>0</f>
@@ -5992,7 +5986,7 @@
         <v>20</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S57">
         <v>-89.210241999999994</v>
@@ -6001,7 +5995,7 @@
         <v>13.70298</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6024,45 +6018,45 @@
         <v>24</v>
       </c>
       <c r="H58" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I58" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="I58" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="S58">
         <v>-89.240026999999998</v>
@@ -6071,7 +6065,7 @@
         <v>13.703569</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>59</v>
       </c>
@@ -6094,7 +6088,7 @@
         <v>24</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
@@ -6130,7 +6124,7 @@
         <v>6</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S59">
         <v>-89.203040999999999</v>
@@ -6139,7 +6133,7 @@
         <v>13.714371</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>60</v>
       </c>
@@ -6162,7 +6156,7 @@
         <v>24</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I60" s="1">
         <f>0</f>
@@ -6200,7 +6194,7 @@
         <v>3</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="S60">
         <v>-89.191305</v>
@@ -6209,7 +6203,7 @@
         <v>13.706894999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>61</v>
       </c>
@@ -6232,7 +6226,7 @@
         <v>24</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I61" s="1">
         <f>0</f>
@@ -6270,7 +6264,7 @@
         <v>11</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S61">
         <v>-89.191311999999996</v>
@@ -6279,7 +6273,7 @@
         <v>13.681168</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>62</v>
       </c>
@@ -6302,45 +6296,45 @@
         <v>24</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I62" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="I62" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="S62">
         <v>-89.191305999999997</v>
@@ -6349,7 +6343,7 @@
         <v>13.683494</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>63</v>
       </c>
@@ -6372,7 +6366,7 @@
         <v>24</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I63" s="1">
         <f>0</f>
@@ -6410,7 +6404,7 @@
         <v>17</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S63">
         <v>-89.229832999999999</v>
@@ -6419,7 +6413,7 @@
         <v>13.69819</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>64</v>
       </c>
@@ -6442,7 +6436,7 @@
         <v>24</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I64" s="1">
         <f>0</f>
@@ -6479,7 +6473,7 @@
         <v>13</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S64">
         <v>-89.228264999999993</v>
@@ -6488,7 +6482,7 @@
         <v>13.675254000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>65</v>
       </c>
@@ -6511,7 +6505,7 @@
         <v>24</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I65" s="1">
         <f>0</f>
@@ -6549,7 +6543,7 @@
         <v>2</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S65">
         <v>-89.188552000000001</v>
@@ -6558,7 +6552,7 @@
         <v>13.690181000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>66</v>
       </c>
@@ -6581,7 +6575,7 @@
         <v>24</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I66" s="1">
         <f>0</f>
@@ -6619,7 +6613,7 @@
         <v>4</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="S66">
         <v>-89.187535999999994</v>
@@ -6628,7 +6622,7 @@
         <v>13.714304</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>67</v>
       </c>
@@ -6651,7 +6645,7 @@
         <v>24</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I67" s="1">
         <f>0</f>
@@ -6689,7 +6683,7 @@
         <v>2</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S67">
         <v>-89.217370000000003</v>
@@ -6698,7 +6692,7 @@
         <v>13.722702</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68">
         <v>68</v>
       </c>
@@ -6721,7 +6715,7 @@
         <v>24</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I68" s="1">
         <f>0</f>
@@ -6759,7 +6753,7 @@
         <v>3</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S68">
         <v>-89.209982999999994</v>
@@ -6768,7 +6762,7 @@
         <v>13.715164</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69">
         <v>69</v>
       </c>
@@ -6791,7 +6785,7 @@
         <v>24</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I69" s="1">
         <f>0</f>
@@ -6829,7 +6823,7 @@
         <v>2</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="S69">
         <v>-89.204355000000007</v>
@@ -6838,7 +6832,7 @@
         <v>13.70857</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70">
         <v>70</v>
       </c>
@@ -6861,7 +6855,7 @@
         <v>24</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I70" s="1">
         <f>0</f>
@@ -6899,7 +6893,7 @@
         <v>5</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S70">
         <v>-89.205979999999997</v>
@@ -6908,7 +6902,7 @@
         <v>13.706678</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71">
         <v>71</v>
       </c>
@@ -6931,7 +6925,7 @@
         <v>24</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I71" s="1">
         <f>0</f>
@@ -6969,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S71">
         <v>-89.204841999999999</v>
@@ -6978,7 +6972,7 @@
         <v>13.7102</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72">
         <v>72</v>
       </c>
@@ -7001,7 +6995,7 @@
         <v>24</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I72" s="1">
         <f>0</f>
@@ -7039,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S72">
         <v>-89.227065999999994</v>
@@ -7048,7 +7042,7 @@
         <v>13.722339</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73">
         <v>73</v>
       </c>
@@ -7071,45 +7065,45 @@
         <v>24</v>
       </c>
       <c r="H73" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="I73" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="I73" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="S73">
         <v>-89.212438000000006</v>
@@ -7118,7 +7112,7 @@
         <v>13.724226</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74">
         <v>75</v>
       </c>
@@ -7141,7 +7135,7 @@
         <v>24</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I74" s="1">
         <f>0</f>
@@ -7173,7 +7167,7 @@
         <v>4</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S74">
         <v>-89.225892000000002</v>
@@ -7182,7 +7176,7 @@
         <v>13.718622999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75">
         <v>76</v>
       </c>
@@ -7205,7 +7199,7 @@
         <v>24</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I75" s="1">
         <f>0</f>
@@ -7252,7 +7246,7 @@
         <v>13.71203</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76">
         <v>77</v>
       </c>
@@ -7322,7 +7316,7 @@
         <v>13.717286</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77">
         <v>78</v>
       </c>
@@ -7345,7 +7339,7 @@
         <v>24</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I77" s="1">
         <f>0</f>
@@ -7392,7 +7386,7 @@
         <v>13.709228</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78">
         <v>79</v>
       </c>
@@ -7415,7 +7409,7 @@
         <v>24</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I78" s="1">
         <f>0</f>
@@ -7462,7 +7456,7 @@
         <v>13.688234</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79">
         <v>81</v>
       </c>
@@ -7485,7 +7479,7 @@
         <v>24</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I79" s="1">
         <f>0</f>
@@ -7532,7 +7526,7 @@
         <v>13.700654999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80">
         <v>82</v>
       </c>
@@ -7555,7 +7549,7 @@
         <v>24</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I80" s="1">
         <f>0</f>
@@ -7593,7 +7587,7 @@
         <v>4</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="S80">
         <v>-89.189859999999996</v>
@@ -7602,7 +7596,7 @@
         <v>13.710501000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81">
         <v>83</v>
       </c>
@@ -7665,7 +7659,7 @@
         <v>13.716232</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82">
         <v>84</v>
       </c>
@@ -7734,7 +7728,7 @@
         <v>13.706199</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83">
         <v>85</v>
       </c>
@@ -7757,7 +7751,7 @@
         <v>24</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I83" s="1">
         <f>0</f>
@@ -7795,7 +7789,7 @@
         <v>2</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S83">
         <v>-89.207121000000001</v>
@@ -7804,7 +7798,7 @@
         <v>13.703569999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84">
         <v>86</v>
       </c>
@@ -7874,7 +7868,7 @@
         <v>13.709807</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85">
         <v>87</v>
       </c>
@@ -7897,7 +7891,7 @@
         <v>24</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I85" s="1">
         <f>0</f>
@@ -7935,7 +7929,7 @@
         <v>3</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="S85">
         <v>-89.195355000000006</v>
@@ -7944,7 +7938,7 @@
         <v>13.702524</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86">
         <v>88</v>
       </c>
@@ -7967,7 +7961,7 @@
         <v>24</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I86" s="1">
         <f>0</f>
@@ -8014,7 +8008,7 @@
         <v>13.686564000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87">
         <v>89</v>
       </c>
@@ -8084,7 +8078,7 @@
         <v>13.716786000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88">
         <v>90</v>
       </c>
@@ -8154,7 +8148,7 @@
         <v>13.701425</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89">
         <v>91</v>
       </c>
@@ -8177,7 +8171,7 @@
         <v>24</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I89" s="1">
         <f>0</f>
@@ -8224,7 +8218,7 @@
         <v>13.695952999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90">
         <v>92</v>
       </c>
@@ -8247,7 +8241,7 @@
         <v>24</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I90" s="1">
         <f>0</f>
@@ -8294,7 +8288,7 @@
         <v>13.709453999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91">
         <v>93</v>
       </c>
@@ -8364,7 +8358,7 @@
         <v>13.716532000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92">
         <v>94</v>
       </c>
@@ -8387,7 +8381,7 @@
         <v>24</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I92" s="1">
         <f>0</f>
@@ -8425,7 +8419,7 @@
         <v>7</v>
       </c>
       <c r="R92" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="S92">
         <v>-89.207820999999996</v>
@@ -8434,7 +8428,7 @@
         <v>13.706015000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93">
         <v>95</v>
       </c>
@@ -8457,7 +8451,7 @@
         <v>24</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I93" s="1">
         <v>1</v>
@@ -8494,7 +8488,7 @@
         <v>9</v>
       </c>
       <c r="R93" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S93">
         <v>-89.188811999999999</v>
@@ -8503,7 +8497,7 @@
         <v>13.684417</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94">
         <v>96</v>
       </c>
@@ -8526,7 +8520,7 @@
         <v>24</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I94" s="1">
         <f>0</f>
@@ -8564,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="R94" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S94">
         <v>-89.250131999999994</v>
@@ -8573,7 +8567,7 @@
         <v>13.701167999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95">
         <v>97</v>
       </c>
@@ -8643,7 +8637,7 @@
         <v>13.675409</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20">
       <c r="A96">
         <v>98</v>
       </c>
@@ -8704,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="R96" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S96">
         <v>-89.209850000000003</v>
@@ -8713,7 +8707,7 @@
         <v>13.685333999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="A97">
         <v>99</v>
       </c>
@@ -8783,7 +8777,7 @@
         <v>13.691805</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98">
         <v>100</v>
       </c>
@@ -8806,7 +8800,7 @@
         <v>24</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I98" s="1">
         <f>0</f>
@@ -8844,7 +8838,7 @@
         <v>3</v>
       </c>
       <c r="R98" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="S98">
         <v>-89.193679000000003</v>
@@ -8853,7 +8847,7 @@
         <v>13.712503999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99">
         <v>101</v>
       </c>
@@ -8922,7 +8916,7 @@
         <v>13.708899000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100">
         <v>102</v>
       </c>
@@ -8992,7 +8986,7 @@
         <v>13.692192</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101">
         <v>103</v>
       </c>
@@ -9015,7 +9009,7 @@
         <v>24</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I101" s="1">
         <v>1</v>
@@ -9052,7 +9046,7 @@
         <v>1</v>
       </c>
       <c r="R101" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="S101">
         <v>-89.224410000000006</v>
@@ -9061,7 +9055,7 @@
         <v>13.6875</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102">
         <v>104</v>
       </c>
@@ -9084,7 +9078,7 @@
         <v>24</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I102" s="1">
         <f>0</f>
@@ -9131,7 +9125,7 @@
         <v>13.704886999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103">
         <v>105</v>
       </c>
@@ -9154,7 +9148,7 @@
         <v>24</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I103" s="1">
         <f>0</f>
@@ -9192,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="R103" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S103">
         <v>-89.242812000000001</v>
@@ -9201,7 +9195,7 @@
         <v>13.705579</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20">
       <c r="A104">
         <v>106</v>
       </c>
@@ -9224,7 +9218,7 @@
         <v>24</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I104" s="1">
         <f>0</f>
@@ -9262,7 +9256,7 @@
         <v>1</v>
       </c>
       <c r="R104" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="S104">
         <v>-89.208865000000003</v>
@@ -9271,7 +9265,7 @@
         <v>13.707492</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105">
         <v>107</v>
       </c>
@@ -9341,7 +9335,7 @@
         <v>13.706576999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106">
         <v>108</v>
       </c>
@@ -9411,7 +9405,7 @@
         <v>13.679601</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107">
         <v>109</v>
       </c>
@@ -9481,7 +9475,7 @@
         <v>13.695596</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108">
         <v>110</v>
       </c>
@@ -9504,7 +9498,7 @@
         <v>24</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I108" s="1">
         <f>0</f>
@@ -9551,7 +9545,7 @@
         <v>13.712513</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" ht="11.25" customHeight="1">
       <c r="A109">
         <v>111</v>
       </c>
@@ -9574,7 +9568,7 @@
         <v>24</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I109" s="1">
         <f>0</f>
@@ -9612,7 +9606,7 @@
         <v>10</v>
       </c>
       <c r="R109" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S109">
         <v>-89.188119</v>
@@ -9621,7 +9615,7 @@
         <v>13.716597999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110">
         <v>112</v>
       </c>
@@ -9682,7 +9676,7 @@
         <v>67</v>
       </c>
       <c r="R110" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="S110">
         <v>-89.190695000000005</v>
@@ -9691,7 +9685,7 @@
         <v>13.68042</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111">
         <v>113</v>
       </c>
@@ -9761,7 +9755,7 @@
         <v>13.683009</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20">
       <c r="A112">
         <v>114</v>
       </c>
@@ -9784,7 +9778,7 @@
         <v>24</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I112" s="1">
         <f>0</f>
@@ -9822,7 +9816,7 @@
         <v>15</v>
       </c>
       <c r="R112" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="S112">
         <v>-89.195724999999996</v>
@@ -9831,7 +9825,7 @@
         <v>13.690447000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113">
         <v>115</v>
       </c>
@@ -9901,7 +9895,7 @@
         <v>13.693725000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114">
         <v>116</v>
       </c>
@@ -9971,7 +9965,7 @@
         <v>13.667845</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115">
         <v>117</v>
       </c>
@@ -10040,7 +10034,7 @@
         <v>13.693864</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116">
         <v>118</v>
       </c>
@@ -10051,19 +10045,19 @@
         <v>178</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10102,18 +10096,18 @@
         <v>13.713098</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117">
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C117" t="s">
         <v>185</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>23</v>
@@ -10125,7 +10119,7 @@
         <v>24</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -10164,18 +10158,18 @@
         <v>13.713381999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118">
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C118" t="s">
         <v>178</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>23</v>
@@ -10187,7 +10181,7 @@
         <v>24</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -10226,18 +10220,18 @@
         <v>13.708119999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119">
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C119" t="s">
         <v>178</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>23</v>
@@ -10249,7 +10243,7 @@
         <v>24</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -10279,7 +10273,7 @@
         <v>27</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S119">
         <v>-89.212305000000001</v>
@@ -10288,18 +10282,18 @@
         <v>13.699408999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20">
       <c r="A120">
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C120" t="s">
         <v>185</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>23</v>
@@ -10311,7 +10305,7 @@
         <v>24</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -10350,18 +10344,18 @@
         <v>13.707917999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121">
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C121" t="s">
         <v>178</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>23</v>
@@ -10373,7 +10367,7 @@
         <v>24</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -10403,7 +10397,7 @@
         <v>30</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S121">
         <v>-89.212703000000005</v>
@@ -10412,18 +10406,18 @@
         <v>13.693706000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122">
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C122" t="s">
         <v>178</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>23</v>
@@ -10435,7 +10429,7 @@
         <v>24</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -10465,7 +10459,7 @@
         <v>41</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S122">
         <v>-89.211607999999998</v>
@@ -10474,18 +10468,18 @@
         <v>13.72273</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123">
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C123" t="s">
         <v>190</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>23</v>
@@ -10497,7 +10491,7 @@
         <v>24</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -10536,18 +10530,18 @@
         <v>13.690578</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124">
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C124" t="s">
         <v>190</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>23</v>
@@ -10559,7 +10553,7 @@
         <v>24</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -10589,7 +10583,7 @@
         <v>6</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S124">
         <v>-89.209158000000002</v>
@@ -10598,18 +10592,18 @@
         <v>13.689075000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125">
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C125" t="s">
         <v>185</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>23</v>
@@ -10621,7 +10615,7 @@
         <v>24</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -10651,7 +10645,7 @@
         <v>39</v>
       </c>
       <c r="R125" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S125">
         <v>-89.194719000000006</v>
@@ -10660,18 +10654,18 @@
         <v>13.712820000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126">
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C126" t="s">
         <v>52</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>23</v>
@@ -10683,7 +10677,7 @@
         <v>24</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -10722,18 +10716,18 @@
         <v>13.694148999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127">
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C127" t="s">
         <v>190</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>23</v>
@@ -10745,7 +10739,7 @@
         <v>24</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -10775,7 +10769,7 @@
         <v>86</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S127">
         <v>-89.190271999999993</v>
@@ -10784,18 +10778,18 @@
         <v>13.687554</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20">
       <c r="A128">
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C128" t="s">
         <v>52</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>23</v>
@@ -10807,7 +10801,7 @@
         <v>24</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -10846,18 +10840,18 @@
         <v>13.701682999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129">
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C129" t="s">
         <v>185</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>23</v>
@@ -10869,7 +10863,7 @@
         <v>24</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -10899,7 +10893,7 @@
         <v>3</v>
       </c>
       <c r="R129" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S129">
         <v>-89.181825000000003</v>
@@ -10908,18 +10902,18 @@
         <v>13.713051</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130">
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C130" t="s">
         <v>52</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>23</v>
@@ -10931,7 +10925,7 @@
         <v>24</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -10970,18 +10964,18 @@
         <v>13.70036</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131">
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C131" t="s">
         <v>185</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>23</v>
@@ -10993,7 +10987,7 @@
         <v>24</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -11023,7 +11017,7 @@
         <v>25</v>
       </c>
       <c r="R131" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S131">
         <v>-89.206068000000002</v>
@@ -11032,18 +11026,18 @@
         <v>13.71547</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132">
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C132" t="s">
         <v>190</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>23</v>
@@ -11055,7 +11049,7 @@
         <v>24</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -11085,7 +11079,7 @@
         <v>101</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S132">
         <v>-89.195426999999995</v>
@@ -11094,18 +11088,18 @@
         <v>13.686310000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133">
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C133" t="s">
         <v>268</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>23</v>
@@ -11117,7 +11111,7 @@
         <v>24</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -11156,18 +11150,18 @@
         <v>13.695622</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134">
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C134" t="s">
         <v>52</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>23</v>
@@ -11179,7 +11173,7 @@
         <v>24</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -11209,7 +11203,7 @@
         <v>32</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S134">
         <v>-89.192777000000007</v>
@@ -11218,18 +11212,18 @@
         <v>13.691182</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135">
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C135" t="s">
         <v>190</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>23</v>
@@ -11241,7 +11235,7 @@
         <v>24</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -11271,7 +11265,7 @@
         <v>38</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S135">
         <v>-89.191277999999997</v>
@@ -11280,18 +11274,18 @@
         <v>13.681215</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136">
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C136" t="s">
         <v>52</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>23</v>
@@ -11303,7 +11297,7 @@
         <v>24</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -11342,18 +11336,18 @@
         <v>13.696282999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137">
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C137" t="s">
         <v>169</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>23</v>
@@ -11365,7 +11359,7 @@
         <v>24</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -11395,7 +11389,7 @@
         <v>175</v>
       </c>
       <c r="R137" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S137">
         <v>-89.248469999999998</v>
@@ -11404,18 +11398,18 @@
         <v>13.70499</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138">
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C138" t="s">
         <v>52</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>23</v>
@@ -11427,7 +11421,7 @@
         <v>24</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -11457,7 +11451,7 @@
         <v>55</v>
       </c>
       <c r="R138" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S138">
         <v>-89.193241</v>
@@ -11466,18 +11460,18 @@
         <v>13.692764</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C139" t="s">
         <v>190</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>23</v>
@@ -11489,7 +11483,7 @@
         <v>24</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -11528,18 +11522,18 @@
         <v>13.682848</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140">
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C140" t="s">
         <v>268</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>23</v>
@@ -11551,37 +11545,37 @@
         <v>24</v>
       </c>
       <c r="H140" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-      <c r="M140">
-        <v>0</v>
-      </c>
-      <c r="N140">
-        <v>0</v>
-      </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="S140">
         <v>-89.177820999999994</v>
@@ -11590,18 +11584,18 @@
         <v>13.705558999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141">
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C141" t="s">
         <v>169</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>23</v>
@@ -11613,7 +11607,7 @@
         <v>24</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -11643,7 +11637,7 @@
         <v>61</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S141">
         <v>-89.237565000000004</v>
@@ -11652,18 +11646,18 @@
         <v>13.705584</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142">
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C142" t="s">
         <v>185</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>23</v>
@@ -11675,7 +11669,7 @@
         <v>24</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -11705,7 +11699,7 @@
         <v>22</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S142">
         <v>-89.181126000000006</v>
@@ -11714,18 +11708,18 @@
         <v>13.718242</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143">
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C143" t="s">
         <v>52</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>23</v>
@@ -11737,7 +11731,7 @@
         <v>24</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -11776,18 +11770,18 @@
         <v>13.702109</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144">
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C144" t="s">
         <v>190</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>23</v>
@@ -11799,7 +11793,7 @@
         <v>24</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -11829,7 +11823,7 @@
         <v>172</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S144">
         <v>-89.193359000000001</v>
@@ -11838,18 +11832,18 @@
         <v>13.685798999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145">
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C145" t="s">
         <v>190</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>23</v>
@@ -11861,7 +11855,7 @@
         <v>24</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -11891,7 +11885,7 @@
         <v>12</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S145">
         <v>-89.183801000000003</v>
@@ -11900,18 +11894,18 @@
         <v>13.681813999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20">
       <c r="A146">
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C146" t="s">
         <v>190</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>23</v>
@@ -11923,7 +11917,7 @@
         <v>24</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -11953,7 +11947,7 @@
         <v>19</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S146">
         <v>-89.201469000000003</v>
@@ -11962,18 +11956,18 @@
         <v>13.688991</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20">
       <c r="A147">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C147" t="s">
         <v>185</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>23</v>
@@ -11985,7 +11979,7 @@
         <v>24</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -12024,18 +12018,18 @@
         <v>13.714926999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20">
       <c r="A148">
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C148" t="s">
         <v>52</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>23</v>
@@ -12047,7 +12041,7 @@
         <v>24</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -12077,7 +12071,7 @@
         <v>66</v>
       </c>
       <c r="R148" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S148">
         <v>-89.188603000000001</v>
@@ -12086,18 +12080,18 @@
         <v>13.695563</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20">
       <c r="A149">
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C149" t="s">
         <v>268</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>23</v>
@@ -12109,7 +12103,7 @@
         <v>24</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -12148,18 +12142,18 @@
         <v>13.702173999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20">
       <c r="A150">
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C150" t="s">
         <v>52</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>23</v>
@@ -12171,7 +12165,7 @@
         <v>24</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -12201,7 +12195,7 @@
         <v>31</v>
       </c>
       <c r="R150" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S150">
         <v>-89.185001999999997</v>
@@ -12210,18 +12204,18 @@
         <v>13.701283</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20">
       <c r="A151">
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C151" t="s">
         <v>185</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>23</v>
@@ -12233,37 +12227,37 @@
         <v>24</v>
       </c>
       <c r="H151" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-      <c r="N151">
-        <v>0</v>
-      </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="S151">
         <v>-89.190760999999995</v>
@@ -12272,18 +12266,18 @@
         <v>13.716775999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20">
       <c r="A152">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C152" t="s">
         <v>185</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>23</v>
@@ -12295,7 +12289,7 @@
         <v>24</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -12325,7 +12319,7 @@
         <v>9</v>
       </c>
       <c r="R152" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S152">
         <v>-89.180909999999997</v>
@@ -12334,18 +12328,18 @@
         <v>13.713483</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20">
       <c r="A153">
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C153" t="s">
         <v>190</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>23</v>
@@ -12357,7 +12351,7 @@
         <v>24</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -12396,18 +12390,18 @@
         <v>13.688765</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20">
       <c r="A154">
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C154" t="s">
         <v>178</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>23</v>
@@ -12419,7 +12413,7 @@
         <v>24</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -12449,7 +12443,7 @@
         <v>5</v>
       </c>
       <c r="R154" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S154">
         <v>-89.204040000000006</v>
@@ -12458,18 +12452,18 @@
         <v>13.714081</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20">
       <c r="A155">
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C155" t="s">
         <v>169</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>23</v>
@@ -12481,37 +12475,37 @@
         <v>24</v>
       </c>
       <c r="H155" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="M155">
-        <v>0</v>
-      </c>
-      <c r="N155">
-        <v>0</v>
-      </c>
-      <c r="O155">
-        <v>0</v>
-      </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-      <c r="Q155">
-        <v>0</v>
-      </c>
-      <c r="R155" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="S155">
         <v>-89.243008000000003</v>
@@ -12520,18 +12514,18 @@
         <v>13.690645999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156">
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C156" t="s">
         <v>169</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>23</v>
@@ -12543,37 +12537,37 @@
         <v>24</v>
       </c>
       <c r="H156" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="M156">
-        <v>0</v>
-      </c>
-      <c r="N156">
-        <v>0</v>
-      </c>
-      <c r="O156">
-        <v>0</v>
-      </c>
-      <c r="P156">
-        <v>0</v>
-      </c>
-      <c r="Q156">
-        <v>0</v>
-      </c>
-      <c r="R156" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="S156">
         <v>-89.245457000000002</v>
@@ -12582,18 +12576,18 @@
         <v>13.70524</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20">
       <c r="A157">
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C157" t="s">
         <v>178</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>23</v>
@@ -12605,7 +12599,7 @@
         <v>24</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -12635,7 +12629,7 @@
         <v>13</v>
       </c>
       <c r="R157" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S157">
         <v>-89.222581000000005</v>
@@ -12644,18 +12638,18 @@
         <v>13.704889</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20">
       <c r="A158">
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C158" t="s">
         <v>169</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>23</v>
@@ -12667,7 +12661,7 @@
         <v>24</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -12697,7 +12691,7 @@
         <v>7</v>
       </c>
       <c r="R158" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S158">
         <v>-89.238696000000004</v>
@@ -12706,18 +12700,18 @@
         <v>13.709291</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20">
       <c r="A159">
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C159" t="s">
         <v>169</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>23</v>
@@ -12729,7 +12723,7 @@
         <v>24</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -12759,7 +12753,7 @@
         <v>4</v>
       </c>
       <c r="R159" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S159">
         <v>-89.227664000000004</v>
@@ -12768,18 +12762,18 @@
         <v>13.70214</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20">
       <c r="A160">
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C160" t="s">
         <v>169</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>23</v>
@@ -12791,37 +12785,37 @@
         <v>24</v>
       </c>
       <c r="H160" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="M160">
-        <v>0</v>
-      </c>
-      <c r="N160">
-        <v>0</v>
-      </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-      <c r="P160">
-        <v>0</v>
-      </c>
-      <c r="Q160">
-        <v>0</v>
-      </c>
-      <c r="R160" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="S160">
         <v>-89.253596999999999</v>
@@ -12830,18 +12824,18 @@
         <v>13.707933000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20">
       <c r="A161">
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C161" t="s">
         <v>178</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>23</v>
@@ -12853,7 +12847,7 @@
         <v>24</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -12883,7 +12877,7 @@
         <v>10</v>
       </c>
       <c r="R161" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S161">
         <v>-89.221441999999996</v>
@@ -12892,18 +12886,18 @@
         <v>13.702451</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20">
       <c r="A162">
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C162" t="s">
         <v>178</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>23</v>
@@ -12915,37 +12909,37 @@
         <v>24</v>
       </c>
       <c r="H162" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>23</v>
+      </c>
+      <c r="R162" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-      <c r="M162">
-        <v>0</v>
-      </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-      <c r="O162">
-        <v>0</v>
-      </c>
-      <c r="P162">
-        <v>0</v>
-      </c>
-      <c r="Q162">
-        <v>23</v>
-      </c>
-      <c r="R162" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="S162">
         <v>-89.218783999999999</v>
@@ -12954,18 +12948,18 @@
         <v>13.705245</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20">
       <c r="A163">
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C163" t="s">
         <v>268</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>23</v>
@@ -12977,7 +12971,7 @@
         <v>24</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -13007,7 +13001,7 @@
         <v>8</v>
       </c>
       <c r="R163" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S163">
         <v>-89.178320999999997</v>
@@ -13016,18 +13010,18 @@
         <v>13.700803000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20">
       <c r="A164">
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C164" t="s">
         <v>169</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>23</v>
@@ -13039,7 +13033,7 @@
         <v>24</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -13069,7 +13063,7 @@
         <v>1</v>
       </c>
       <c r="R164" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S164">
         <v>-89.235270999999997</v>
@@ -13078,18 +13072,18 @@
         <v>13.705298000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20">
       <c r="A165">
         <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C165" t="s">
         <v>178</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>23</v>
@@ -13101,37 +13095,37 @@
         <v>24</v>
       </c>
       <c r="H165" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-      <c r="M165">
-        <v>0</v>
-      </c>
-      <c r="N165">
-        <v>0</v>
-      </c>
-      <c r="O165">
-        <v>0</v>
-      </c>
-      <c r="P165">
-        <v>0</v>
-      </c>
-      <c r="Q165">
-        <v>0</v>
-      </c>
-      <c r="R165" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="S165">
         <v>-89.210736999999995</v>
@@ -13140,7 +13134,7 @@
         <v>13.707132</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20">
       <c r="A166">
         <v>168</v>
       </c>
@@ -13151,7 +13145,7 @@
         <v>169</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>23</v>
@@ -13163,7 +13157,7 @@
         <v>24</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -13193,7 +13187,7 @@
         <v>1</v>
       </c>
       <c r="R166" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S166">
         <v>-89.232964999999993</v>
@@ -13202,7 +13196,7 @@
         <v>13.693469</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20">
       <c r="A167">
         <v>169</v>
       </c>
@@ -13213,7 +13207,7 @@
         <v>169</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>23</v>
@@ -13225,7 +13219,7 @@
         <v>24</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -13264,7 +13258,7 @@
         <v>13.695543000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20">
       <c r="A168">
         <v>170</v>
       </c>
@@ -13275,7 +13269,7 @@
         <v>169</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>23</v>
@@ -13287,37 +13281,37 @@
         <v>24</v>
       </c>
       <c r="H168" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-      <c r="M168">
-        <v>0</v>
-      </c>
-      <c r="N168">
-        <v>0</v>
-      </c>
-      <c r="O168">
-        <v>0</v>
-      </c>
-      <c r="P168">
-        <v>0</v>
-      </c>
-      <c r="Q168">
-        <v>0</v>
-      </c>
-      <c r="R168" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="S168">
         <v>-89.230805000000004</v>
@@ -13326,7 +13320,7 @@
         <v>13.696263</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20">
       <c r="A169">
         <v>171</v>
       </c>
@@ -13337,7 +13331,7 @@
         <v>169</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>23</v>
@@ -13349,37 +13343,37 @@
         <v>24</v>
       </c>
       <c r="H169" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="M169">
-        <v>0</v>
-      </c>
-      <c r="N169">
-        <v>0</v>
-      </c>
-      <c r="O169">
-        <v>0</v>
-      </c>
-      <c r="P169">
-        <v>0</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="S169">
         <v>-89.256371999999999</v>
@@ -13388,7 +13382,7 @@
         <v>13.7117</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20">
       <c r="A170">
         <v>172</v>
       </c>
@@ -13399,7 +13393,7 @@
         <v>178</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>23</v>
@@ -13411,7 +13405,7 @@
         <v>24</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -13441,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="R170" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S170">
         <v>-89.223832000000002</v>
@@ -13450,7 +13444,7 @@
         <v>13.697799</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20">
       <c r="A171">
         <v>173</v>
       </c>
@@ -13461,7 +13455,7 @@
         <v>178</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>23</v>
@@ -13473,7 +13467,7 @@
         <v>24</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -13503,7 +13497,7 @@
         <v>20</v>
       </c>
       <c r="R171" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S171">
         <v>-89.210209000000006</v>
@@ -13512,7 +13506,7 @@
         <v>13.702619</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20">
       <c r="A172">
         <v>174</v>
       </c>
@@ -13523,7 +13517,7 @@
         <v>169</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>23</v>
@@ -13535,37 +13529,37 @@
         <v>24</v>
       </c>
       <c r="H172" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-      <c r="M172">
-        <v>0</v>
-      </c>
-      <c r="N172">
-        <v>0</v>
-      </c>
-      <c r="O172">
-        <v>0</v>
-      </c>
-      <c r="P172">
-        <v>0</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="S172">
         <v>-89.240027999999995</v>
@@ -13574,18 +13568,18 @@
         <v>13.703282</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20">
       <c r="A173">
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C173" t="s">
         <v>169</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>23</v>
@@ -13597,7 +13591,7 @@
         <v>24</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -13627,7 +13621,7 @@
         <v>12</v>
       </c>
       <c r="R173" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S173">
         <v>-89.242760000000004</v>
@@ -13636,7 +13630,7 @@
         <v>13.682029999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20">
       <c r="A174">
         <v>176</v>
       </c>
@@ -13647,7 +13641,7 @@
         <v>185</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>23</v>
@@ -13659,7 +13653,7 @@
         <v>24</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -13689,7 +13683,7 @@
         <v>6</v>
       </c>
       <c r="R174" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S174">
         <v>-89.203052</v>
@@ -13698,7 +13692,7 @@
         <v>13.714146</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20">
       <c r="A175">
         <v>177</v>
       </c>
@@ -13709,7 +13703,7 @@
         <v>185</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>23</v>
@@ -13721,7 +13715,7 @@
         <v>24</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -13751,7 +13745,7 @@
         <v>3</v>
       </c>
       <c r="R175" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="S175">
         <v>-89.191293999999999</v>
@@ -13760,7 +13754,7 @@
         <v>13.706586</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20">
       <c r="A176">
         <v>178</v>
       </c>
@@ -13771,7 +13765,7 @@
         <v>190</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>23</v>
@@ -13783,7 +13777,7 @@
         <v>24</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -13813,7 +13807,7 @@
         <v>11</v>
       </c>
       <c r="R176" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S176">
         <v>-89.191278999999994</v>
@@ -13822,7 +13816,7 @@
         <v>13.680828</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20">
       <c r="A177">
         <v>179</v>
       </c>
@@ -13833,7 +13827,7 @@
         <v>190</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>23</v>
@@ -13845,37 +13839,37 @@
         <v>24</v>
       </c>
       <c r="H177" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-      <c r="M177">
-        <v>0</v>
-      </c>
-      <c r="N177">
-        <v>0</v>
-      </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-      <c r="P177">
-        <v>0</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="S177">
         <v>-89.191280000000006</v>
@@ -13884,7 +13878,7 @@
         <v>13.683268</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20">
       <c r="A178">
         <v>180</v>
       </c>
@@ -13895,7 +13889,7 @@
         <v>169</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>23</v>
@@ -13907,7 +13901,7 @@
         <v>24</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -13937,7 +13931,7 @@
         <v>17</v>
       </c>
       <c r="R178" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S178">
         <v>-89.229834999999994</v>
@@ -13946,7 +13940,7 @@
         <v>13.697851999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20">
       <c r="A179">
         <v>181</v>
       </c>
@@ -13957,7 +13951,7 @@
         <v>196</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>23</v>
@@ -13969,7 +13963,7 @@
         <v>24</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -13999,7 +13993,7 @@
         <v>13</v>
       </c>
       <c r="R179" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S179">
         <v>-89.228286999999995</v>
@@ -14008,7 +14002,7 @@
         <v>13.674987</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20">
       <c r="A180">
         <v>182</v>
       </c>
@@ -14019,7 +14013,7 @@
         <v>190</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>99</v>
@@ -14031,7 +14025,7 @@
         <v>24</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -14061,7 +14055,7 @@
         <v>2</v>
       </c>
       <c r="R180" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S180">
         <v>-89.188573000000005</v>
@@ -14070,7 +14064,7 @@
         <v>13.689968</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20">
       <c r="A181">
         <v>183</v>
       </c>
@@ -14081,7 +14075,7 @@
         <v>52</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>23</v>
@@ -14093,7 +14087,7 @@
         <v>24</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -14123,7 +14117,7 @@
         <v>4</v>
       </c>
       <c r="R181" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="S181">
         <v>-89.187145999999998</v>
@@ -14132,18 +14126,18 @@
         <v>13.702182000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20">
       <c r="A182">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C182" t="s">
         <v>52</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>23</v>
@@ -14155,7 +14149,7 @@
         <v>24</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -14185,7 +14179,7 @@
         <v>1</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S182">
         <v>-89.190549000000004</v>
@@ -14194,7 +14188,7 @@
         <v>13.702856000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20">
       <c r="A183">
         <v>185</v>
       </c>
@@ -14217,7 +14211,7 @@
         <v>24</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -14247,7 +14241,7 @@
         <v>2</v>
       </c>
       <c r="R183" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S183">
         <v>-89.217358000000004</v>
@@ -14256,7 +14250,7 @@
         <v>13.722426</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20">
       <c r="A184">
         <v>186</v>
       </c>
@@ -14279,7 +14273,7 @@
         <v>24</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -14309,7 +14303,7 @@
         <v>3</v>
       </c>
       <c r="R184" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S184">
         <v>-89.209982999999994</v>
@@ -14318,7 +14312,7 @@
         <v>13.7149</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20">
       <c r="A185">
         <v>187</v>
       </c>
@@ -14341,7 +14335,7 @@
         <v>24</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -14371,7 +14365,7 @@
         <v>2</v>
       </c>
       <c r="R185" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="S185">
         <v>-89.204365999999993</v>
@@ -14380,7 +14374,7 @@
         <v>13.708280999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20">
       <c r="A186">
         <v>188</v>
       </c>
@@ -14403,7 +14397,7 @@
         <v>24</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -14433,7 +14427,7 @@
         <v>5</v>
       </c>
       <c r="R186" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S186">
         <v>-89.206000000000003</v>
@@ -14442,7 +14436,7 @@
         <v>13.706295000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20">
       <c r="A187">
         <v>189</v>
       </c>
@@ -14465,37 +14459,37 @@
         <v>24</v>
       </c>
       <c r="H187" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-      <c r="M187">
-        <v>0</v>
-      </c>
-      <c r="N187">
-        <v>0</v>
-      </c>
-      <c r="O187">
-        <v>0</v>
-      </c>
-      <c r="P187">
-        <v>0</v>
-      </c>
-      <c r="Q187">
-        <v>0</v>
-      </c>
-      <c r="R187" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="S187">
         <v>-89.204841999999999</v>
@@ -14504,7 +14498,7 @@
         <v>13.709922000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20">
       <c r="A188">
         <v>190</v>
       </c>
@@ -14527,7 +14521,7 @@
         <v>24</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -14557,7 +14551,7 @@
         <v>2</v>
       </c>
       <c r="R188" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S188">
         <v>-89.227098999999995</v>
@@ -14566,7 +14560,7 @@
         <v>13.722103000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20">
       <c r="A189">
         <v>191</v>
       </c>
@@ -14589,7 +14583,7 @@
         <v>24</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -14619,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="R189" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S189">
         <v>-89.212439000000003</v>
@@ -14628,7 +14622,7 @@
         <v>13.724178999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20">
       <c r="A190">
         <v>192</v>
       </c>
@@ -14651,7 +14645,7 @@
         <v>24</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -14681,7 +14675,7 @@
         <v>4</v>
       </c>
       <c r="R190" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S190">
         <v>-89.225903000000002</v>
@@ -14690,7 +14684,7 @@
         <v>13.718272000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20">
       <c r="A191">
         <v>193</v>
       </c>
@@ -14752,12 +14746,12 @@
         <v>13.711764000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20">
       <c r="A192">
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C192" t="s">
         <v>178</v>
@@ -14775,37 +14769,37 @@
         <v>24</v>
       </c>
       <c r="H192" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-      <c r="K192">
-        <v>0</v>
-      </c>
-      <c r="L192">
-        <v>0</v>
-      </c>
-      <c r="M192">
-        <v>0</v>
-      </c>
-      <c r="N192">
-        <v>0</v>
-      </c>
-      <c r="O192">
-        <v>0</v>
-      </c>
-      <c r="P192">
-        <v>0</v>
-      </c>
-      <c r="Q192">
-        <v>0</v>
-      </c>
-      <c r="R192" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="S192">
         <v>-89.205421999999999</v>
@@ -14814,12 +14808,12 @@
         <v>13.709047</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20">
       <c r="A193">
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C193" t="s">
         <v>178</v>
@@ -14837,7 +14831,7 @@
         <v>24</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -14867,7 +14861,7 @@
         <v>10</v>
       </c>
       <c r="R193" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S193">
         <v>-89.207875000000001</v>
@@ -14876,12 +14870,12 @@
         <v>13.6965</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20">
       <c r="A194">
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C194" t="s">
         <v>196</v>
@@ -14899,37 +14893,37 @@
         <v>24</v>
       </c>
       <c r="H194" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-      <c r="J194">
-        <v>0</v>
-      </c>
-      <c r="K194">
-        <v>0</v>
-      </c>
-      <c r="L194">
-        <v>0</v>
-      </c>
-      <c r="M194">
-        <v>0</v>
-      </c>
-      <c r="N194">
-        <v>0</v>
-      </c>
-      <c r="O194">
-        <v>0</v>
-      </c>
-      <c r="P194">
-        <v>0</v>
-      </c>
-      <c r="Q194">
-        <v>0</v>
-      </c>
-      <c r="R194" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="S194">
         <v>-89.228541000000007</v>
@@ -14938,12 +14932,12 @@
         <v>13.689292999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20">
       <c r="A195">
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C195" t="s">
         <v>178</v>
@@ -14961,7 +14955,7 @@
         <v>24</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -14991,7 +14985,7 @@
         <v>1</v>
       </c>
       <c r="R195" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S195">
         <v>-89.214044999999999</v>
@@ -15000,12 +14994,12 @@
         <v>13.70919</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20">
       <c r="A196">
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C196" t="s">
         <v>185</v>
@@ -15023,7 +15017,7 @@
         <v>24</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -15053,7 +15047,7 @@
         <v>3</v>
       </c>
       <c r="R196" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S196">
         <v>-89.192807000000002</v>
@@ -15062,12 +15056,12 @@
         <v>13.71242</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20">
       <c r="A197">
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C197" t="s">
         <v>190</v>
@@ -15085,7 +15079,7 @@
         <v>24</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -15115,7 +15109,7 @@
         <v>4</v>
       </c>
       <c r="R197" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="S197">
         <v>-89.192252999999994</v>
@@ -15124,12 +15118,12 @@
         <v>13.678775</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20">
       <c r="A198">
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C198" t="s">
         <v>169</v>
@@ -15147,37 +15141,37 @@
         <v>24</v>
       </c>
       <c r="H198" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-      <c r="J198">
-        <v>0</v>
-      </c>
-      <c r="K198">
-        <v>0</v>
-      </c>
-      <c r="L198">
-        <v>0</v>
-      </c>
-      <c r="M198">
-        <v>0</v>
-      </c>
-      <c r="N198">
-        <v>0</v>
-      </c>
-      <c r="O198">
-        <v>0</v>
-      </c>
-      <c r="P198">
-        <v>0</v>
-      </c>
-      <c r="Q198">
-        <v>0</v>
-      </c>
-      <c r="R198" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="S198">
         <v>-89.235061000000002</v>
@@ -15186,12 +15180,12 @@
         <v>13.706481</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20">
       <c r="A199">
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C199" t="s">
         <v>178</v>
@@ -15209,37 +15203,37 @@
         <v>24</v>
       </c>
       <c r="H199" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-      <c r="J199">
-        <v>0</v>
-      </c>
-      <c r="K199">
-        <v>0</v>
-      </c>
-      <c r="L199">
-        <v>0</v>
-      </c>
-      <c r="M199">
-        <v>0</v>
-      </c>
-      <c r="N199">
-        <v>0</v>
-      </c>
-      <c r="O199">
-        <v>0</v>
-      </c>
-      <c r="P199">
-        <v>0</v>
-      </c>
-      <c r="Q199">
-        <v>0</v>
-      </c>
-      <c r="R199" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="S199">
         <v>-89.206700999999995</v>
@@ -15248,12 +15242,12 @@
         <v>13.711066000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20">
       <c r="A200">
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C200" t="s">
         <v>178</v>
@@ -15271,37 +15265,37 @@
         <v>24</v>
       </c>
       <c r="H200" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
-      <c r="J200">
-        <v>0</v>
-      </c>
-      <c r="K200">
-        <v>0</v>
-      </c>
-      <c r="L200">
-        <v>0</v>
-      </c>
-      <c r="M200">
-        <v>0</v>
-      </c>
-      <c r="N200">
-        <v>0</v>
-      </c>
-      <c r="O200">
-        <v>0</v>
-      </c>
-      <c r="P200">
-        <v>0</v>
-      </c>
-      <c r="Q200">
-        <v>0</v>
-      </c>
-      <c r="R200" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="S200">
         <v>-89.213870999999997</v>
@@ -15310,12 +15304,12 @@
         <v>13.724677</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20">
       <c r="A201">
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C201" t="s">
         <v>185</v>
@@ -15333,37 +15327,37 @@
         <v>24</v>
       </c>
       <c r="H201" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201">
-        <v>0</v>
-      </c>
-      <c r="K201">
-        <v>0</v>
-      </c>
-      <c r="L201">
-        <v>0</v>
-      </c>
-      <c r="M201">
-        <v>0</v>
-      </c>
-      <c r="N201">
-        <v>0</v>
-      </c>
-      <c r="O201">
-        <v>0</v>
-      </c>
-      <c r="P201">
-        <v>0</v>
-      </c>
-      <c r="Q201">
-        <v>0</v>
-      </c>
-      <c r="R201" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="S201">
         <v>-89.192098000000001</v>
@@ -15372,12 +15366,12 @@
         <v>13.705864</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20">
       <c r="A202">
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C202" t="s">
         <v>185</v>
@@ -15395,7 +15389,7 @@
         <v>24</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -15425,7 +15419,7 @@
         <v>12</v>
       </c>
       <c r="R202" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S202">
         <v>-89.191883000000004</v>
@@ -15434,12 +15428,12 @@
         <v>13.707279</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20">
       <c r="A203">
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C203" t="s">
         <v>178</v>
@@ -15457,37 +15451,37 @@
         <v>24</v>
       </c>
       <c r="H203" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
-      <c r="K203">
-        <v>0</v>
-      </c>
-      <c r="L203">
-        <v>0</v>
-      </c>
-      <c r="M203">
-        <v>0</v>
-      </c>
-      <c r="N203">
-        <v>0</v>
-      </c>
-      <c r="O203">
-        <v>0</v>
-      </c>
-      <c r="P203">
-        <v>0</v>
-      </c>
-      <c r="Q203">
-        <v>0</v>
-      </c>
-      <c r="R203" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="S203">
         <v>-89.226365000000001</v>
@@ -15496,12 +15490,12 @@
         <v>13.707625</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20">
       <c r="A204">
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C204" t="s">
         <v>185</v>
@@ -15519,7 +15513,7 @@
         <v>24</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -15549,7 +15543,7 @@
         <v>8</v>
       </c>
       <c r="R204" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S204">
         <v>-89.187303</v>
@@ -15558,12 +15552,12 @@
         <v>13.709097</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20">
       <c r="A205">
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C205" t="s">
         <v>178</v>
@@ -15581,37 +15575,37 @@
         <v>24</v>
       </c>
       <c r="H205" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205">
-        <v>0</v>
-      </c>
-      <c r="K205">
-        <v>0</v>
-      </c>
-      <c r="L205">
-        <v>0</v>
-      </c>
-      <c r="M205">
-        <v>0</v>
-      </c>
-      <c r="N205">
-        <v>0</v>
-      </c>
-      <c r="O205">
-        <v>0</v>
-      </c>
-      <c r="P205">
-        <v>0</v>
-      </c>
-      <c r="Q205">
-        <v>0</v>
-      </c>
-      <c r="R205" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="S205">
         <v>-89.215466000000006</v>
@@ -15620,12 +15614,12 @@
         <v>13.701646999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20">
       <c r="A206">
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C206" t="s">
         <v>52</v>
@@ -15643,7 +15637,7 @@
         <v>24</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -15673,7 +15667,7 @@
         <v>11</v>
       </c>
       <c r="R206" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S206">
         <v>-89.195357000000001</v>
@@ -15682,12 +15676,12 @@
         <v>13.702202</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20">
       <c r="A207">
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C207" t="s">
         <v>178</v>
@@ -15705,7 +15699,7 @@
         <v>24</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -15735,7 +15729,7 @@
         <v>1</v>
       </c>
       <c r="R207" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S207">
         <v>-89.237178999999998</v>
@@ -15744,12 +15738,12 @@
         <v>13.71227</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20">
       <c r="A208">
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C208" t="s">
         <v>178</v>
@@ -15767,7 +15761,7 @@
         <v>24</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -15797,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="R208" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="S208">
         <v>-89.208489999999998</v>
@@ -15806,12 +15800,12 @@
         <v>13.706987</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20">
       <c r="A209">
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C209" t="s">
         <v>185</v>
@@ -15829,7 +15823,7 @@
         <v>24</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -15859,7 +15853,7 @@
         <v>3</v>
       </c>
       <c r="R209" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S209">
         <v>-89.177892999999997</v>
@@ -15868,12 +15862,12 @@
         <v>13.712535000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20">
       <c r="A210">
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C210" t="s">
         <v>169</v>
@@ -15891,7 +15885,7 @@
         <v>24</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -15921,7 +15915,7 @@
         <v>3</v>
       </c>
       <c r="R210" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S210">
         <v>-89.241669000000002</v>
@@ -15930,12 +15924,12 @@
         <v>13.685416</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20">
       <c r="A211">
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C211" t="s">
         <v>178</v>
@@ -15953,7 +15947,7 @@
         <v>24</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -15983,7 +15977,7 @@
         <v>12</v>
       </c>
       <c r="R211" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S211">
         <v>-89.228128999999996</v>
@@ -15992,12 +15986,12 @@
         <v>13.708334000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20">
       <c r="A212">
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C212" t="s">
         <v>268</v>
@@ -16015,7 +16009,7 @@
         <v>24</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -16045,7 +16039,7 @@
         <v>6</v>
       </c>
       <c r="R212" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S212">
         <v>-89.167869999999994</v>
@@ -16054,12 +16048,12 @@
         <v>13.703436</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20">
       <c r="A213">
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C213" t="s">
         <v>169</v>
@@ -16077,7 +16071,7 @@
         <v>24</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -16107,7 +16101,7 @@
         <v>2</v>
       </c>
       <c r="R213" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S213">
         <v>-89.242289</v>
@@ -16116,12 +16110,12 @@
         <v>13.707208</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20">
       <c r="A214">
         <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C214" t="s">
         <v>178</v>
@@ -16139,7 +16133,7 @@
         <v>24</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -16169,7 +16163,7 @@
         <v>4</v>
       </c>
       <c r="R214" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S214">
         <v>-89.220048000000006</v>
@@ -16178,12 +16172,12 @@
         <v>13.702450000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20">
       <c r="A215">
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C215" t="s">
         <v>196</v>
@@ -16201,37 +16195,37 @@
         <v>24</v>
       </c>
       <c r="H215" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
-      <c r="J215">
-        <v>0</v>
-      </c>
-      <c r="K215">
-        <v>0</v>
-      </c>
-      <c r="L215">
-        <v>0</v>
-      </c>
-      <c r="M215">
-        <v>0</v>
-      </c>
-      <c r="N215">
-        <v>0</v>
-      </c>
-      <c r="O215">
-        <v>0</v>
-      </c>
-      <c r="P215">
-        <v>0</v>
-      </c>
-      <c r="Q215">
-        <v>0</v>
-      </c>
-      <c r="R215" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="S215">
         <v>-89.224084000000005</v>
@@ -16240,12 +16234,12 @@
         <v>13.686311999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20">
       <c r="A216">
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C216" t="s">
         <v>178</v>
@@ -16263,7 +16257,7 @@
         <v>24</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -16293,7 +16287,7 @@
         <v>1</v>
       </c>
       <c r="R216" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="S216">
         <v>-89.217561000000003</v>
@@ -16302,12 +16296,12 @@
         <v>13.722999</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20">
       <c r="A217">
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C217" t="s">
         <v>178</v>
@@ -16325,7 +16319,7 @@
         <v>24</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -16355,7 +16349,7 @@
         <v>6</v>
       </c>
       <c r="R217" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S217">
         <v>-89.207438999999994</v>
@@ -16364,12 +16358,12 @@
         <v>13.708879</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20">
       <c r="A218">
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C218" t="s">
         <v>178</v>
@@ -16387,7 +16381,7 @@
         <v>24</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -16417,7 +16411,7 @@
         <v>2</v>
       </c>
       <c r="R218" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S218">
         <v>-89.224361000000002</v>
@@ -16426,12 +16420,12 @@
         <v>13.718145</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20">
       <c r="A219">
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C219" t="s">
         <v>185</v>
@@ -16449,37 +16443,37 @@
         <v>24</v>
       </c>
       <c r="H219" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-      <c r="K219">
-        <v>0</v>
-      </c>
-      <c r="L219">
-        <v>0</v>
-      </c>
-      <c r="M219">
-        <v>0</v>
-      </c>
-      <c r="N219">
-        <v>0</v>
-      </c>
-      <c r="O219">
-        <v>0</v>
-      </c>
-      <c r="P219">
-        <v>0</v>
-      </c>
-      <c r="Q219">
-        <v>0</v>
-      </c>
-      <c r="R219" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="S219">
         <v>-89.198352999999997</v>
@@ -16488,12 +16482,12 @@
         <v>13.718259</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20">
       <c r="A220">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C220" t="s">
         <v>178</v>
@@ -16511,37 +16505,37 @@
         <v>24</v>
       </c>
       <c r="H220" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
-      <c r="J220">
-        <v>0</v>
-      </c>
-      <c r="K220">
-        <v>0</v>
-      </c>
-      <c r="L220">
-        <v>0</v>
-      </c>
-      <c r="M220">
-        <v>0</v>
-      </c>
-      <c r="N220">
-        <v>0</v>
-      </c>
-      <c r="O220">
-        <v>0</v>
-      </c>
-      <c r="P220">
-        <v>0</v>
-      </c>
-      <c r="Q220">
-        <v>0</v>
-      </c>
-      <c r="R220" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="S220">
         <v>-89.21754</v>
@@ -16550,12 +16544,12 @@
         <v>13.69722</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20">
       <c r="A221">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C221" t="s">
         <v>169</v>
@@ -16573,37 +16567,37 @@
         <v>24</v>
       </c>
       <c r="H221" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221">
-        <v>0</v>
-      </c>
-      <c r="K221">
-        <v>0</v>
-      </c>
-      <c r="L221">
-        <v>0</v>
-      </c>
-      <c r="M221">
-        <v>0</v>
-      </c>
-      <c r="N221">
-        <v>0</v>
-      </c>
-      <c r="O221">
-        <v>0</v>
-      </c>
-      <c r="P221">
-        <v>0</v>
-      </c>
-      <c r="Q221">
-        <v>0</v>
-      </c>
-      <c r="R221" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="S221">
         <v>-89.229765999999998</v>
@@ -16612,12 +16606,12 @@
         <v>13.703986</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20">
       <c r="A222">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C222" t="s">
         <v>169</v>
@@ -16635,7 +16629,7 @@
         <v>24</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -16665,7 +16659,7 @@
         <v>2</v>
       </c>
       <c r="R222" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S222">
         <v>-89.246163999999993</v>
@@ -16674,12 +16668,12 @@
         <v>13.706302000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20">
       <c r="A223">
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C223" t="s">
         <v>169</v>
@@ -16691,13 +16685,13 @@
         <v>99</v>
       </c>
       <c r="F223" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G223" s="2" t="s">
+      <c r="H223" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="H223" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -16736,12 +16730,12 @@
         <v>13.732999</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20">
       <c r="A224">
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C224" t="s">
         <v>190</v>
@@ -16759,7 +16753,7 @@
         <v>24</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -16789,7 +16783,7 @@
         <v>10</v>
       </c>
       <c r="R224" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S224">
         <v>-89.199866</v>
@@ -16798,12 +16792,12 @@
         <v>13.684027</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20">
       <c r="A225">
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C225" t="s">
         <v>268</v>
@@ -16821,7 +16815,7 @@
         <v>24</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -16851,7 +16845,7 @@
         <v>48</v>
       </c>
       <c r="R225" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S225">
         <v>-89.172497000000007</v>
@@ -16860,12 +16854,12 @@
         <v>13.694799</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20">
       <c r="A226">
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C226" t="s">
         <v>190</v>
@@ -16883,7 +16877,7 @@
         <v>24</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -16922,12 +16916,12 @@
         <v>13.682399</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20">
       <c r="A227">
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C227" t="s">
         <v>190</v>
@@ -16945,7 +16939,7 @@
         <v>24</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -16975,7 +16969,7 @@
         <v>29</v>
       </c>
       <c r="R227" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="S227">
         <v>-89.186501000000007</v>
@@ -16984,12 +16978,12 @@
         <v>13.686828999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20">
       <c r="A228">
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C228" t="s">
         <v>52</v>
@@ -17007,7 +17001,7 @@
         <v>24</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -17037,7 +17031,7 @@
         <v>8</v>
       </c>
       <c r="R228" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S228">
         <v>-89.200749999999999</v>
@@ -17046,12 +17040,12 @@
         <v>13.69069</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20">
       <c r="A229">
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C229" t="s">
         <v>185</v>
@@ -17069,7 +17063,7 @@
         <v>24</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -17099,7 +17093,7 @@
         <v>6</v>
       </c>
       <c r="R229" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S229">
         <v>-89.184798000000001</v>
@@ -17108,12 +17102,12 @@
         <v>13.71482</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20">
       <c r="A230">
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C230" t="s">
         <v>190</v>
@@ -17131,7 +17125,7 @@
         <v>24</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -17170,12 +17164,12 @@
         <v>13.687469999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20">
       <c r="A231">
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C231" t="s">
         <v>268</v>
@@ -17193,7 +17187,7 @@
         <v>24</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -17223,7 +17217,7 @@
         <v>4</v>
       </c>
       <c r="R231" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S231">
         <v>-89.181317000000007</v>
@@ -17232,12 +17226,12 @@
         <v>13.697727</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20">
       <c r="A232">
         <v>234</v>
       </c>
       <c r="B232" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C232" t="s">
         <v>169</v>
@@ -17294,12 +17288,12 @@
         <v>13.682100999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20">
       <c r="A233">
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C233" t="s">
         <v>190</v>
@@ -17317,37 +17311,37 @@
         <v>24</v>
       </c>
       <c r="H233" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="I233">
-        <v>0</v>
-      </c>
-      <c r="J233">
-        <v>0</v>
-      </c>
-      <c r="K233">
-        <v>0</v>
-      </c>
-      <c r="L233">
-        <v>0</v>
-      </c>
-      <c r="M233">
-        <v>0</v>
-      </c>
-      <c r="N233">
-        <v>0</v>
-      </c>
-      <c r="O233">
-        <v>0</v>
-      </c>
-      <c r="P233">
-        <v>0</v>
-      </c>
-      <c r="Q233">
-        <v>0</v>
-      </c>
-      <c r="R233" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="S233">
         <v>-89.199869000000007</v>
@@ -17356,12 +17350,12 @@
         <v>13.684029000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20">
       <c r="A234">
         <v>236</v>
       </c>
       <c r="B234" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C234" t="s">
         <v>190</v>
@@ -17379,7 +17373,7 @@
         <v>24</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -17409,7 +17403,7 @@
         <v>7</v>
       </c>
       <c r="R234" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S234">
         <v>-89.211652000000001</v>
@@ -17418,12 +17412,12 @@
         <v>13.670481000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20">
       <c r="A235">
         <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C235" t="s">
         <v>178</v>
@@ -17441,7 +17435,7 @@
         <v>24</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -17471,7 +17465,7 @@
         <v>6</v>
       </c>
       <c r="R235" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S235">
         <v>-89.224923000000004</v>
@@ -17480,12 +17474,12 @@
         <v>13.70337</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20">
       <c r="A236">
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C236" t="s">
         <v>178</v>
@@ -17503,7 +17497,7 @@
         <v>24</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -17533,7 +17527,7 @@
         <v>2</v>
       </c>
       <c r="R236" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S236">
         <v>-89.203419999999994</v>
@@ -17542,12 +17536,12 @@
         <v>13.723376</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20">
       <c r="A237">
         <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C237" t="s">
         <v>196</v>
@@ -17565,7 +17559,7 @@
         <v>24</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -17595,7 +17589,7 @@
         <v>7</v>
       </c>
       <c r="R237" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S237">
         <v>-89.216488999999996</v>
@@ -17604,12 +17598,12 @@
         <v>13.688955</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20">
       <c r="A238">
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C238" t="s">
         <v>190</v>
@@ -17627,7 +17621,7 @@
         <v>24</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -17657,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="R238" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S238">
         <v>-89.187160000000006</v>
@@ -17666,12 +17660,12 @@
         <v>13.691689999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20">
       <c r="A239">
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C239" t="s">
         <v>52</v>
@@ -17689,7 +17683,7 @@
         <v>24</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -17719,7 +17713,7 @@
         <v>10</v>
       </c>
       <c r="R239" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S239">
         <v>-89.184666000000007</v>
@@ -17728,12 +17722,12 @@
         <v>13.700362999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20">
       <c r="A240">
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C240" t="s">
         <v>268</v>
@@ -17751,7 +17745,7 @@
         <v>24</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -17791,8 +17785,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T240"/>
   <hyperlinks>
-    <hyperlink ref="R236" r:id="rId1" xr:uid="{79DAD165-9A45-465D-A845-413026EE5604}"/>
+    <hyperlink ref="R236" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
